--- a/excel/a.xlsx
+++ b/excel/a.xlsx
@@ -5,22 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\dev\Google_Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\dev\Google_Bot\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33C2B3FF-6BC3-462C-8083-CF2BED4171E6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26A2D7F-363C-41CF-96B6-0FF46E35DF41}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{2716FB68-EC2D-4A54-A8EF-CFDA0036F22F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2443,9 +2438,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2472,11 +2474,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2492,72 +2498,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>386</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>389</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 11" descr="Cicaderm Crema reparatoare pe baza de Mimosa Tenuiflora, 40 ml">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5043CB1-13D8-4187-90DA-70C243170049}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="403860" y="519463020"/>
-          <a:ext cx="304800" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2856,4025 +2796,4136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEEDD6C-0676-40B5-878E-71C2137E37D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J795"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+    <row r="110" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+    <row r="112" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+    <row r="113" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+    <row r="114" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+    <row r="117" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+    <row r="120" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+    <row r="121" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+    <row r="124" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+    <row r="126" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+    <row r="127" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+    <row r="128" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+    <row r="129" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+    <row r="131" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+    <row r="132" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+    <row r="136" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+    <row r="137" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+    <row r="138" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+    <row r="140" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+    <row r="141" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+    <row r="142" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+    <row r="143" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+    <row r="144" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+    <row r="145" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+    <row r="147" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+    <row r="148" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+    <row r="149" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+    <row r="150" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+    <row r="151" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+    <row r="152" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+    <row r="153" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+    <row r="154" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+    <row r="155" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+    <row r="156" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+    <row r="157" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+    <row r="158" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+    <row r="159" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+    <row r="160" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+    <row r="161" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A161" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+    <row r="162" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+    <row r="163" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+    <row r="164" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A164" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+    <row r="165" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+    <row r="166" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+    <row r="167" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+    <row r="168" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+    <row r="169" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+    <row r="170" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A170" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+    <row r="171" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+    <row r="172" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+    <row r="173" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+    <row r="174" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+    <row r="175" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+    <row r="176" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A176" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+    <row r="177" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A177" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+    <row r="178" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A178" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+    <row r="179" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+    <row r="180" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+    <row r="182" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+    <row r="183" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+    <row r="184" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+    <row r="185" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+    <row r="186" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+    <row r="187" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+    <row r="188" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+    <row r="189" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+    <row r="190" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+    <row r="191" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+    <row r="192" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A192" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+    <row r="193" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+    <row r="194" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+    <row r="195" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+    <row r="196" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+    <row r="197" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+    <row r="198" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+    <row r="199" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
+    <row r="200" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+    <row r="201" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+    <row r="202" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A202" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+    <row r="203" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A203" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+    <row r="204" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+    <row r="205" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
+    <row r="206" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+    <row r="207" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+    <row r="208" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+    <row r="209" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+    <row r="210" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A210" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
+    <row r="211" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A211" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
+    <row r="212" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A212" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+    <row r="213" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+    <row r="214" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+    <row r="215" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A215" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+    <row r="216" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A216" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
+    <row r="217" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+    <row r="218" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A218" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+    <row r="219" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A219" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
+    <row r="220" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A220" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+    <row r="221" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A221" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+    <row r="222" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A222" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
+    <row r="223" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A223" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+    <row r="224" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A224" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+    <row r="225" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A225" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+    <row r="226" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A226" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+    <row r="227" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A227" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+    <row r="228" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+    <row r="229" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A229" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+    <row r="230" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A230" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+    <row r="231" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A231" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+    <row r="232" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A232" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+    <row r="233" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A233" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+    <row r="234" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A234" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+    <row r="235" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A235" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+    <row r="236" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A236" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
+    <row r="237" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A237" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+    <row r="238" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A238" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+    <row r="239" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A239" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+    <row r="240" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A240" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+    <row r="241" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A241" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+    <row r="242" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A242" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+    <row r="243" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A243" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+    <row r="244" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A244" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+    <row r="245" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A245" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+    <row r="246" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A246" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+    <row r="247" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+    <row r="248" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
+    <row r="249" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
+    <row r="250" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A250" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
+    <row r="251" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A251" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
+    <row r="252" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A252" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+    <row r="253" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A253" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+    <row r="254" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A254" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
+    <row r="255" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+    <row r="256" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A256" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
+    <row r="257" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A257" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
+    <row r="258" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A258" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+    <row r="259" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A259" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+    <row r="260" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A260" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
+    <row r="261" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A261" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
+    <row r="262" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A262" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
+    <row r="263" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A263" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
+    <row r="264" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A264" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
+    <row r="265" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A265" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="266" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
+    <row r="266" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A266" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="267" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
+    <row r="267" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A267" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="268" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
+    <row r="268" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A268" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
+    <row r="269" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A269" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
+    <row r="270" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A270" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="271" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
+    <row r="271" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A271" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="272" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
+    <row r="272" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A272" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="273" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
+    <row r="273" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A273" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="274" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
+    <row r="274" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A274" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
+    <row r="275" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A275" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+    <row r="276" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A276" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
+    <row r="277" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A277" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
+    <row r="278" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A278" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="279" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
+    <row r="279" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A279" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
+    <row r="280" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A280" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
+    <row r="281" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A281" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
+    <row r="282" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A282" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
+    <row r="283" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A283" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
+    <row r="284" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A284" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="285" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A285" s="1" t="s">
+    <row r="285" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A285" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="286" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
+    <row r="286" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A286" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
+    <row r="287" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A287" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
+    <row r="288" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A288" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="289" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
+    <row r="289" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A289" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
+    <row r="290" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A290" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
+    <row r="291" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A291" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="292" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
+    <row r="292" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A292" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="293" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A293" s="1" t="s">
+    <row r="293" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A293" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
+    <row r="294" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A294" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
+    <row r="295" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A295" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
+    <row r="296" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A296" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
+    <row r="297" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A297" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="298" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
+    <row r="298" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A298" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="299" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
+    <row r="299" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A299" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
+    <row r="300" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A300" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="301" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A301" s="1" t="s">
+    <row r="301" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A301" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="302" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
+    <row r="302" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A302" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="303" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
+    <row r="303" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A303" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="304" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
+    <row r="304" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A304" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="305" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
+    <row r="305" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A305" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="306" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
+    <row r="306" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A306" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="307" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
+    <row r="307" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A307" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="308" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
+    <row r="308" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A308" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="309" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
+    <row r="309" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A309" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="310" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
+    <row r="310" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A310" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="311" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
+    <row r="311" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A311" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="312" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
+    <row r="312" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A312" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="313" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A313" s="1" t="s">
+    <row r="313" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A313" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="314" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
+    <row r="314" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A314" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="315" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
+    <row r="315" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A315" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="316" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
+    <row r="316" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A316" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="317" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
+    <row r="317" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A317" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="318" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
+    <row r="318" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A318" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="319" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
+    <row r="319" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A319" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="320" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
+    <row r="320" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A320" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="321" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
+    <row r="321" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A321" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="322" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
+    <row r="322" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A322" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="323" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
+    <row r="323" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A323" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="324" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
+    <row r="324" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A324" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="325" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
+    <row r="325" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A325" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="326" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
+    <row r="326" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A326" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="327" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
+    <row r="327" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A327" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="328" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
+    <row r="328" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A328" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="329" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
+    <row r="329" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A329" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="330" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
+    <row r="330" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A330" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="331" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
+    <row r="331" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A331" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="332" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
+    <row r="332" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A332" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="333" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
+    <row r="333" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A333" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="334" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
+    <row r="334" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A334" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="335" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
+    <row r="335" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A335" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="336" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
+    <row r="336" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A336" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="337" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
+    <row r="337" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A337" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="338" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
+    <row r="338" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A338" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="339" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A339" s="1" t="s">
+    <row r="339" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A339" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="340" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
+    <row r="340" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A340" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="341" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
+    <row r="341" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A341" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="342" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
+    <row r="342" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A342" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="343" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
+    <row r="343" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A343" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="344" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
+    <row r="344" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A344" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="345" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
+    <row r="345" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A345" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="346" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
+    <row r="346" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A346" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="347" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
+    <row r="347" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A347" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="348" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
+    <row r="348" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A348" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="349" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
+    <row r="349" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A349" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="350" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
+    <row r="350" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A350" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="351" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
+    <row r="351" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A351" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="352" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
+    <row r="352" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A352" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="353" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
+    <row r="353" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A353" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="354" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
+    <row r="354" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A354" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="355" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
+    <row r="355" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A355" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="356" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
+    <row r="356" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A356" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="357" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A357" s="1" t="s">
+    <row r="357" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A357" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="358" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
+    <row r="358" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A358" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="359" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
+    <row r="359" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A359" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="360" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
+    <row r="360" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A360" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="361" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A361" s="1" t="s">
+    <row r="361" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A361" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="362" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
+    <row r="362" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A362" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="363" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A363" s="1" t="s">
+    <row r="363" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A363" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="364" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
+    <row r="364" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A364" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="365" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
+    <row r="365" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A365" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="366" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
+    <row r="366" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A366" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="367" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
+    <row r="367" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A367" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="368" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
+    <row r="368" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A368" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="369" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A369" s="1" t="s">
+    <row r="369" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A369" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="370" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+    <row r="370" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A370" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="371" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
+    <row r="371" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A371" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="372" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+    <row r="372" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A372" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="373" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
+    <row r="373" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A373" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="374" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
+    <row r="374" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A374" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="375" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
+    <row r="375" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A375" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="376" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
+    <row r="376" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A376" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="377" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A377" s="1" t="s">
+    <row r="377" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A377" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="378" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
+    <row r="378" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A378" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="379" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
+    <row r="379" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A379" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="380" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
+    <row r="380" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A380" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="381" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A381" s="1" t="s">
+    <row r="381" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A381" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="382" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
+    <row r="382" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A382" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="383" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A383" s="1" t="s">
+    <row r="383" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A383" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="384" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A384" s="1" t="s">
+    <row r="384" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A384" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A385" s="1" t="s">
+    <row r="385" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A385" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A386" s="1" t="s">
+    <row r="386" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A386" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A387" s="1" t="s">
+    <row r="387" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A387" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B387"/>
-    </row>
-    <row r="388" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A388" s="1" t="s">
+    </row>
+    <row r="388" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A388" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A389" s="1" t="s">
+    <row r="389" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A389" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A390" s="1" t="s">
+    <row r="390" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A390" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A391" s="1" t="s">
+    <row r="391" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A391" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A392" s="1" t="s">
+    <row r="392" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A392" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A393" s="1" t="s">
+    <row r="393" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A393" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A394" s="1" t="s">
+    <row r="394" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A394" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A395" s="1" t="s">
+    <row r="395" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A395" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A396" s="1" t="s">
+    <row r="396" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A396" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A397" s="1" t="s">
+    <row r="397" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A397" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A398" s="1" t="s">
+    <row r="398" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A398" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A399" s="1" t="s">
+    <row r="399" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A399" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A400" s="1" t="s">
+    <row r="400" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A400" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="401" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
+    <row r="401" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A401" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="402" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A402" s="1" t="s">
+    <row r="402" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A402" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="403" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A403" s="1" t="s">
+    <row r="403" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A403" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="404" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
+    <row r="404" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A404" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="405" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A405" s="1" t="s">
+    <row r="405" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A405" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="406" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A406" s="1" t="s">
+    <row r="406" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A406" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="407" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A407" s="1" t="s">
+    <row r="407" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A407" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="408" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A408" s="1" t="s">
+    <row r="408" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A408" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="409" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A409" s="1" t="s">
+    <row r="409" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A409" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="410" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A410" s="1" t="s">
+    <row r="410" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A410" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="411" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A411" s="1" t="s">
+    <row r="411" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A411" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="412" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A412" s="1" t="s">
+    <row r="412" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A412" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="413" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A413" s="1" t="s">
+    <row r="413" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A413" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="414" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A414" s="1" t="s">
+    <row r="414" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A414" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="415" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A415" s="1" t="s">
+    <row r="415" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A415" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="416" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A416" s="1" t="s">
+    <row r="416" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A416" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="417" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A417" s="1" t="s">
+    <row r="417" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A417" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="418" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A418" s="1" t="s">
+    <row r="418" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A418" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="419" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A419" s="1" t="s">
+    <row r="419" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A419" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="420" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A420" s="1" t="s">
+    <row r="420" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A420" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="421" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A421" s="1" t="s">
+    <row r="421" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A421" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="422" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A422" s="1" t="s">
+    <row r="422" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A422" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="423" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A423" s="1" t="s">
+    <row r="423" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A423" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="424" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A424" s="1" t="s">
+    <row r="424" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A424" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="425" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A425" s="1" t="s">
+    <row r="425" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A425" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="426" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A426" s="1" t="s">
+    <row r="426" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A426" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="427" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A427" s="1" t="s">
+    <row r="427" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A427" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="428" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A428" s="1" t="s">
+    <row r="428" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A428" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="429" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A429" s="1" t="s">
+    <row r="429" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A429" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="430" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A430" s="1" t="s">
+    <row r="430" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A430" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="431" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A431" s="1" t="s">
+    <row r="431" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A431" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="432" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A432" s="1" t="s">
+    <row r="432" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A432" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="433" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A433" s="1" t="s">
+    <row r="433" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A433" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="434" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A434" s="1" t="s">
+    <row r="434" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A434" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="435" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A435" s="1" t="s">
+    <row r="435" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A435" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="436" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A436" s="1" t="s">
+    <row r="436" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A436" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="437" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A437" s="1" t="s">
+    <row r="437" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A437" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="438" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A438" s="1" t="s">
+    <row r="438" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A438" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="439" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A439" s="1" t="s">
+    <row r="439" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A439" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="440" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A440" s="1" t="s">
+    <row r="440" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A440" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="441" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A441" s="1" t="s">
+    <row r="441" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A441" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="442" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A442" s="1" t="s">
+    <row r="442" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A442" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="443" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A443" s="1" t="s">
+    <row r="443" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A443" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="444" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A444" s="1" t="s">
+    <row r="444" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A444" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="445" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A445" s="1" t="s">
+    <row r="445" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A445" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="446" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A446" s="1" t="s">
+    <row r="446" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A446" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="447" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A447" s="1" t="s">
+    <row r="447" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A447" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="448" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A448" s="1" t="s">
+    <row r="448" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A448" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="449" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A449" s="1" t="s">
+    <row r="449" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A449" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="450" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A450" s="1" t="s">
+    <row r="450" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A450" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="451" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A451" s="1" t="s">
+    <row r="451" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A451" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="452" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A452" s="1" t="s">
+    <row r="452" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A452" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="453" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A453" s="1" t="s">
+    <row r="453" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A453" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="454" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A454" s="1" t="s">
+    <row r="454" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A454" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="455" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A455" s="1" t="s">
+    <row r="455" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A455" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="456" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A456" s="1" t="s">
+    <row r="456" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A456" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="457" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A457" s="1" t="s">
+    <row r="457" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A457" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="458" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A458" s="1" t="s">
+    <row r="458" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A458" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="459" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A459" s="1" t="s">
+    <row r="459" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A459" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="460" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A460" s="1" t="s">
+    <row r="460" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A460" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="461" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A461" s="1" t="s">
+    <row r="461" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A461" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="462" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A462" s="1" t="s">
+    <row r="462" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A462" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="463" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A463" s="1" t="s">
+    <row r="463" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A463" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="464" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A464" s="1" t="s">
+    <row r="464" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A464" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="465" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A465" s="1" t="s">
+    <row r="465" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A465" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="466" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A466" s="1" t="s">
+    <row r="466" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A466" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="467" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A467" s="1" t="s">
+    <row r="467" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A467" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="468" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A468" s="1" t="s">
+    <row r="468" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A468" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="469" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A469" s="1" t="s">
+    <row r="469" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A469" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="470" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A470" s="1" t="s">
+    <row r="470" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A470" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="471" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A471" s="1" t="s">
+    <row r="471" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A471" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="472" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A472" s="1" t="s">
+    <row r="472" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A472" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="473" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A473" s="1" t="s">
+    <row r="473" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A473" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="474" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A474" s="1" t="s">
+    <row r="474" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A474" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="475" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A475" s="1" t="s">
+    <row r="475" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A475" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="476" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A476" s="1" t="s">
+    <row r="476" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A476" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="477" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A477" s="1" t="s">
+    <row r="477" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A477" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="478" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A478" s="1" t="s">
+    <row r="478" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A478" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="479" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A479" s="1" t="s">
+    <row r="479" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A479" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="480" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A480" s="1" t="s">
+    <row r="480" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A480" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="481" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A481" s="1" t="s">
+    <row r="481" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A481" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="482" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A482" s="1" t="s">
+    <row r="482" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A482" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="483" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A483" s="1" t="s">
+    <row r="483" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A483" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="484" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A484" s="1" t="s">
+    <row r="484" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A484" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="485" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A485" s="1" t="s">
+    <row r="485" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A485" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="486" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A486" s="1" t="s">
+    <row r="486" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A486" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="487" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A487" s="1" t="s">
+    <row r="487" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A487" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="488" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A488" s="1" t="s">
+    <row r="488" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A488" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="489" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A489" s="1" t="s">
+    <row r="489" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A489" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="490" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A490" s="1" t="s">
+    <row r="490" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A490" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="491" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A491" s="1" t="s">
+    <row r="491" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A491" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="492" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A492" s="1" t="s">
+    <row r="492" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A492" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="493" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A493" s="1" t="s">
+    <row r="493" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A493" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="494" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A494" s="1" t="s">
+    <row r="494" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A494" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="495" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A495" s="1" t="s">
+    <row r="495" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A495" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="496" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A496" s="1" t="s">
+    <row r="496" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A496" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="497" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A497" s="1" t="s">
+    <row r="497" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A497" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="498" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A498" s="1" t="s">
+    <row r="498" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A498" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="499" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A499" s="1" t="s">
+    <row r="499" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A499" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="500" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A500" s="1" t="s">
+    <row r="500" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A500" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="501" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A501" s="1" t="s">
+    <row r="501" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A501" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="502" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A502" s="1" t="s">
+    <row r="502" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A502" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="503" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A503" s="1" t="s">
+    <row r="503" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A503" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="504" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A504" s="1" t="s">
+    <row r="504" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A504" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="505" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A505" s="1" t="s">
+    <row r="505" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A505" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="506" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A506" s="1" t="s">
+    <row r="506" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A506" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="507" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A507" s="1" t="s">
+    <row r="507" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A507" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="508" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A508" s="1" t="s">
+    <row r="508" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A508" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="509" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A509" s="1" t="s">
+    <row r="509" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A509" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="510" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A510" s="1" t="s">
+    <row r="510" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A510" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="511" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A511" s="1" t="s">
+    <row r="511" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A511" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="512" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A512" s="1" t="s">
+    <row r="512" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A512" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="513" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A513" s="1" t="s">
+    <row r="513" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A513" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="514" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A514" s="1" t="s">
+    <row r="514" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A514" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="515" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A515" s="1" t="s">
+    <row r="515" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A515" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="516" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A516" s="1" t="s">
+    <row r="516" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A516" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="517" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A517" s="1" t="s">
+    <row r="517" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A517" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="518" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A518" s="1" t="s">
+    <row r="518" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A518" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="519" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A519" s="1" t="s">
+    <row r="519" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A519" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="520" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A520" s="1" t="s">
+    <row r="520" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A520" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="521" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A521" s="1" t="s">
+    <row r="521" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A521" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="522" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A522" s="1" t="s">
+    <row r="522" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A522" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="523" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A523" s="1" t="s">
+    <row r="523" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A523" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="524" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A524" s="1" t="s">
+    <row r="524" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A524" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="525" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A525" s="1" t="s">
+    <row r="525" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A525" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="526" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A526" s="1" t="s">
+    <row r="526" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A526" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="527" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A527" s="1" t="s">
+    <row r="527" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A527" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="528" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A528" s="1" t="s">
+    <row r="528" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A528" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="529" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A529" s="1" t="s">
+    <row r="529" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A529" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="530" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A530" s="1" t="s">
+    <row r="530" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A530" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="531" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A531" s="1" t="s">
+    <row r="531" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A531" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="532" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A532" s="1" t="s">
+    <row r="532" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A532" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="533" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A533" s="1" t="s">
+    <row r="533" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A533" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="534" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A534" s="1" t="s">
+    <row r="534" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A534" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="535" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A535" s="1" t="s">
+    <row r="535" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A535" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="536" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A536" s="1" t="s">
+    <row r="536" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A536" s="2" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="537" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A537" s="1" t="s">
+    <row r="537" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A537" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="538" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A538" s="1" t="s">
+    <row r="538" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A538" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="539" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A539" s="1" t="s">
+    <row r="539" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A539" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="540" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A540" s="1" t="s">
+    <row r="540" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A540" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="541" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A541" s="1" t="s">
+    <row r="541" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A541" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="542" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A542" s="1" t="s">
+    <row r="542" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A542" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="543" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A543" s="1" t="s">
+    <row r="543" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A543" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="544" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A544" s="1" t="s">
+    <row r="544" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A544" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="545" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A545" s="1" t="s">
+    <row r="545" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A545" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="546" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A546" s="1" t="s">
+    <row r="546" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A546" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="547" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A547" s="1" t="s">
+    <row r="547" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A547" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="548" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A548" s="1" t="s">
+    <row r="548" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A548" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="549" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A549" s="1" t="s">
+    <row r="549" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A549" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="550" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A550" s="1" t="s">
+    <row r="550" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A550" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="551" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A551" s="1" t="s">
+    <row r="551" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A551" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="552" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A552" s="1" t="s">
+    <row r="552" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A552" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="553" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A553" s="1" t="s">
+    <row r="553" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A553" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="554" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A554" s="1" t="s">
+    <row r="554" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A554" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="555" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A555" s="1" t="s">
+    <row r="555" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A555" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="556" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A556" s="1" t="s">
+    <row r="556" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A556" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="557" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A557" s="1" t="s">
+    <row r="557" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A557" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="558" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A558" s="1" t="s">
+    <row r="558" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A558" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="559" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A559" s="1" t="s">
+    <row r="559" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A559" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="560" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A560" s="1" t="s">
+    <row r="560" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A560" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="561" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A561" s="1" t="s">
+    <row r="561" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A561" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="562" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A562" s="1" t="s">
+    <row r="562" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A562" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="563" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A563" s="1" t="s">
+    <row r="563" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A563" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="564" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A564" s="1" t="s">
+    <row r="564" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A564" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="565" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A565" s="1" t="s">
+    <row r="565" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A565" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="566" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A566" s="1" t="s">
+    <row r="566" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A566" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="567" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A567" s="1" t="s">
+    <row r="567" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A567" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="568" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A568" s="1" t="s">
+    <row r="568" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A568" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="569" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A569" s="1" t="s">
+    <row r="569" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A569" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="570" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A570" s="1" t="s">
+    <row r="570" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A570" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="571" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A571" s="1" t="s">
+    <row r="571" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A571" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="572" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A572" s="1" t="s">
+    <row r="572" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A572" s="2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="573" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A573" s="1" t="s">
+    <row r="573" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A573" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="574" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A574" s="1" t="s">
+    <row r="574" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A574" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="575" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A575" s="1" t="s">
+    <row r="575" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A575" s="2" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="576" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A576" s="1" t="s">
+    <row r="576" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A576" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="577" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A577" s="1" t="s">
+    <row r="577" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A577" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="578" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A578" s="1" t="s">
+    <row r="578" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A578" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="579" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A579" s="1" t="s">
+    <row r="579" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A579" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="580" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A580" s="1" t="s">
+    <row r="580" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A580" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="581" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A581" s="1" t="s">
+    <row r="581" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A581" s="2" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="582" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A582" s="1" t="s">
+    <row r="582" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A582" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="583" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A583" s="1" t="s">
+    <row r="583" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A583" s="2" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="584" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A584" s="1" t="s">
+    <row r="584" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A584" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="585" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A585" s="1" t="s">
+    <row r="585" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A585" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="586" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A586" s="1" t="s">
+    <row r="586" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A586" s="2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="587" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A587" s="1" t="s">
+    <row r="587" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A587" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="588" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A588" s="1" t="s">
+    <row r="588" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A588" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="589" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A589" s="1" t="s">
+    <row r="589" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A589" s="2" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="590" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A590" s="1" t="s">
+    <row r="590" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A590" s="2" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="591" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A591" s="1" t="s">
+    <row r="591" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A591" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="592" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A592" s="1" t="s">
+    <row r="592" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A592" s="2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="593" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A593" s="1" t="s">
+    <row r="593" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A593" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="594" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A594" s="1" t="s">
+    <row r="594" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A594" s="2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="595" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A595" s="1" t="s">
+    <row r="595" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A595" s="2" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="596" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A596" s="1" t="s">
+    <row r="596" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A596" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="597" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A597" s="1" t="s">
+    <row r="597" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A597" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="598" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A598" s="1" t="s">
+    <row r="598" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A598" s="2" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="599" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A599" s="1" t="s">
+    <row r="599" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A599" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="600" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A600" s="1" t="s">
+    <row r="600" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A600" s="2" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="601" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A601" s="1" t="s">
+    <row r="601" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A601" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="602" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A602" s="1" t="s">
+    <row r="602" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A602" s="2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="603" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A603" s="1" t="s">
+    <row r="603" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A603" s="2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="604" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A604" s="1" t="s">
+    <row r="604" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A604" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="605" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A605" s="1" t="s">
+    <row r="605" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A605" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="606" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A606" s="1" t="s">
+    <row r="606" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A606" s="2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="607" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A607" s="1" t="s">
+    <row r="607" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A607" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="608" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A608" s="1" t="s">
+    <row r="608" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A608" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="609" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A609" s="1" t="s">
+    <row r="609" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A609" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="610" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A610" s="1" t="s">
+    <row r="610" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A610" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="611" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A611" s="1" t="s">
+    <row r="611" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A611" s="2" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="612" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A612" s="1" t="s">
+    <row r="612" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A612" s="2" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="613" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A613" s="1" t="s">
+    <row r="613" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A613" s="2" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="614" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A614" s="1" t="s">
+    <row r="614" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A614" s="2" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="615" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A615" s="1" t="s">
+    <row r="615" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A615" s="2" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="616" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A616" s="1" t="s">
+    <row r="616" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A616" s="2" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="617" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A617" s="1" t="s">
+    <row r="617" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A617" s="2" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="618" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A618" s="1" t="s">
+    <row r="618" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A618" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="619" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A619" s="1" t="s">
+    <row r="619" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A619" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="620" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A620" s="1" t="s">
+    <row r="620" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A620" s="2" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="621" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A621" s="1" t="s">
+    <row r="621" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A621" s="2" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="622" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A622" s="1" t="s">
+    <row r="622" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A622" s="2" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="623" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A623" s="1" t="s">
+    <row r="623" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A623" s="2" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="624" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A624" s="1" t="s">
+    <row r="624" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A624" s="2" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="625" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A625" s="1" t="s">
+    <row r="625" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A625" s="2" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="626" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A626" s="1" t="s">
+    <row r="626" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A626" s="2" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="627" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A627" s="1" t="s">
+    <row r="627" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A627" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="628" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A628" s="1" t="s">
+    <row r="628" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A628" s="2" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="629" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A629" s="1" t="s">
+    <row r="629" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A629" s="2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="630" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A630" s="1" t="s">
+    <row r="630" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A630" s="2" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="631" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A631" s="1" t="s">
+    <row r="631" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A631" s="2" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="632" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A632" s="1" t="s">
+    <row r="632" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A632" s="2" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="633" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A633" s="1" t="s">
+    <row r="633" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A633" s="2" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="634" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A634" s="1" t="s">
+    <row r="634" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A634" s="2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="635" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A635" s="1" t="s">
+    <row r="635" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A635" s="2" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="636" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A636" s="1" t="s">
+    <row r="636" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A636" s="2" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="637" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A637" s="1" t="s">
+    <row r="637" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A637" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="638" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A638" s="1" t="s">
+    <row r="638" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A638" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="639" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A639" s="1" t="s">
+    <row r="639" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A639" s="2" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="640" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A640" s="1" t="s">
+    <row r="640" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A640" s="2" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="641" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A641" s="1" t="s">
+    <row r="641" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A641" s="2" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="642" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A642" s="1" t="s">
+    <row r="642" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A642" s="2" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="643" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A643" s="1" t="s">
+    <row r="643" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A643" s="2" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="644" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A644" s="1" t="s">
+    <row r="644" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A644" s="2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="645" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A645" s="1" t="s">
+    <row r="645" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A645" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="646" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A646" s="1" t="s">
+    <row r="646" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A646" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="647" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A647" s="1" t="s">
+    <row r="647" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A647" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="648" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A648" s="1" t="s">
+    <row r="648" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A648" s="2" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="649" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A649" s="1" t="s">
+    <row r="649" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A649" s="2" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="650" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A650" s="1" t="s">
+    <row r="650" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A650" s="2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="651" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A651" s="1" t="s">
+    <row r="651" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A651" s="2" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="652" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A652" s="1" t="s">
+    <row r="652" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A652" s="2" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="653" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A653" s="1" t="s">
+    <row r="653" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A653" s="2" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="654" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A654" s="1" t="s">
+    <row r="654" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A654" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="655" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A655" s="1" t="s">
+    <row r="655" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A655" s="2" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="656" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A656" s="1" t="s">
+    <row r="656" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A656" s="2" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="657" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A657" s="1" t="s">
+    <row r="657" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A657" s="2" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="658" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A658" s="1" t="s">
+    <row r="658" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A658" s="2" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="659" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A659" s="1" t="s">
+    <row r="659" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A659" s="2" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="660" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A660" s="1" t="s">
+    <row r="660" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A660" s="2" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="661" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A661" s="1" t="s">
+    <row r="661" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A661" s="2" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="662" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A662" s="1" t="s">
+    <row r="662" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A662" s="2" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="663" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A663" s="1" t="s">
+    <row r="663" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A663" s="2" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="664" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A664" s="1" t="s">
+    <row r="664" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A664" s="2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="665" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A665" s="1" t="s">
+    <row r="665" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A665" s="2" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="666" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A666" s="1" t="s">
+    <row r="666" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A666" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="667" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A667" s="1" t="s">
+    <row r="667" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A667" s="2" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="668" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A668" s="1" t="s">
+    <row r="668" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A668" s="2" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="669" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A669" s="1" t="s">
+    <row r="669" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A669" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="670" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A670" s="1" t="s">
+    <row r="670" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A670" s="2" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="671" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A671" s="1" t="s">
+    <row r="671" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A671" s="2" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="672" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A672" s="1" t="s">
+    <row r="672" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A672" s="2" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="673" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A673" s="1" t="s">
+    <row r="673" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A673" s="2" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="674" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A674" s="1" t="s">
+    <row r="674" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A674" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="675" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A675" s="1" t="s">
+    <row r="675" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A675" s="2" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="676" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A676" s="1" t="s">
+    <row r="676" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A676" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="677" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A677" s="1" t="s">
+    <row r="677" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A677" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="678" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A678" s="1" t="s">
+    <row r="678" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A678" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="679" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A679" s="1" t="s">
+    <row r="679" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A679" s="2" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="680" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A680" s="1" t="s">
+    <row r="680" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A680" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="681" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A681" s="1" t="s">
+    <row r="681" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A681" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="682" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A682" s="1" t="s">
+    <row r="682" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A682" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="683" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A683" s="1" t="s">
+    <row r="683" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A683" s="2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="684" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A684" s="1" t="s">
+    <row r="684" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A684" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="685" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A685" s="1" t="s">
+    <row r="685" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A685" s="2" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="686" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A686" s="1" t="s">
+    <row r="686" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A686" s="2" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="687" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A687" s="1" t="s">
+    <row r="687" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A687" s="2" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="688" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A688" s="1" t="s">
+    <row r="688" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A688" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="689" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A689" s="1" t="s">
+    <row r="689" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A689" s="2" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="690" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A690" s="1" t="s">
+    <row r="690" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A690" s="2" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="691" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A691" s="1" t="s">
+    <row r="691" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A691" s="2" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="692" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A692" s="1" t="s">
+    <row r="692" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A692" s="2" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="693" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A693" s="1" t="s">
+    <row r="693" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A693" s="2" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="694" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A694" s="1" t="s">
+    <row r="694" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A694" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="695" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A695" s="1" t="s">
+    <row r="695" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A695" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="696" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A696" s="1" t="s">
+    <row r="696" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A696" s="2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="697" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A697" s="1" t="s">
+    <row r="697" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A697" s="2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="698" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A698" s="1" t="s">
+    <row r="698" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A698" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="699" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A699" s="1" t="s">
+    <row r="699" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A699" s="2" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="700" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A700" s="1" t="s">
+    <row r="700" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A700" s="2" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="701" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A701" s="1" t="s">
+    <row r="701" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A701" s="2" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="702" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A702" s="1" t="s">
+    <row r="702" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A702" s="2" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="703" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A703" s="1" t="s">
+    <row r="703" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A703" s="2" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="704" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A704" s="1" t="s">
+    <row r="704" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A704" s="2" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="705" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A705" s="1" t="s">
+    <row r="705" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A705" s="2" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="706" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A706" s="1" t="s">
+    <row r="706" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A706" s="2" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="707" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A707" s="1" t="s">
+    <row r="707" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A707" s="2" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="708" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A708" s="1" t="s">
+    <row r="708" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A708" s="2" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="709" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A709" s="1" t="s">
+    <row r="709" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A709" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="710" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A710" s="1" t="s">
+    <row r="710" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A710" s="2" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="711" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A711" s="1" t="s">
+    <row r="711" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A711" s="2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="712" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A712" s="1" t="s">
+    <row r="712" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A712" s="2" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="713" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A713" s="1" t="s">
+    <row r="713" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A713" s="2" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="714" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A714" s="1" t="s">
+    <row r="714" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A714" s="2" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="715" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A715" s="1" t="s">
+    <row r="715" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A715" s="2" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="716" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A716" s="1" t="s">
+    <row r="716" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A716" s="2" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="717" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A717" s="1" t="s">
+    <row r="717" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A717" s="2" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="718" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A718" s="1" t="s">
+    <row r="718" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A718" s="2" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="719" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A719" s="1" t="s">
+    <row r="719" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A719" s="2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="720" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A720" s="1" t="s">
+    <row r="720" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A720" s="2" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="721" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A721" s="1" t="s">
+    <row r="721" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A721" s="2" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="722" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A722" s="1" t="s">
+    <row r="722" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A722" s="2" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="723" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A723" s="1" t="s">
+    <row r="723" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A723" s="2" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="724" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A724" s="1" t="s">
+    <row r="724" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A724" s="2" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="725" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A725" s="1" t="s">
+    <row r="725" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A725" s="2" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="726" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A726" s="1" t="s">
+    <row r="726" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A726" s="2" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="727" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A727" s="1" t="s">
+    <row r="727" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A727" s="2" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="728" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A728" s="1" t="s">
+    <row r="728" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A728" s="2" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="729" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A729" s="1" t="s">
+    <row r="729" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A729" s="2" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="730" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A730" s="1" t="s">
+    <row r="730" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A730" s="2" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="731" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A731" s="1" t="s">
+    <row r="731" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A731" s="2" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="732" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A732" s="1" t="s">
+    <row r="732" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A732" s="2" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="733" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A733" s="1" t="s">
+    <row r="733" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A733" s="2" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="734" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A734" s="1" t="s">
+    <row r="734" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A734" s="2" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="735" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A735" s="1" t="s">
+    <row r="735" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A735" s="2" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="736" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A736" s="1" t="s">
+    <row r="736" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A736" s="2" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="737" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A737" s="1" t="s">
+    <row r="737" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A737" s="2" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="738" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A738" s="1" t="s">
+    <row r="738" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A738" s="2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="739" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A739" s="1" t="s">
+    <row r="739" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A739" s="2" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="740" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A740" s="1" t="s">
+    <row r="740" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A740" s="2" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="741" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A741" s="1" t="s">
+    <row r="741" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A741" s="2" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="742" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A742" s="1" t="s">
+    <row r="742" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A742" s="2" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="743" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A743" s="1" t="s">
+    <row r="743" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A743" s="2" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="744" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A744" s="1" t="s">
+    <row r="744" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A744" s="2" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="745" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A745" s="1" t="s">
+    <row r="745" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A745" s="2" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="746" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A746" s="1" t="s">
+    <row r="746" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A746" s="2" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="747" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A747" s="1" t="s">
+    <row r="747" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A747" s="2" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="748" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A748" s="1" t="s">
+    <row r="748" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A748" s="2" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="749" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A749" s="1" t="s">
+    <row r="749" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A749" s="2" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="750" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A750" s="1" t="s">
+    <row r="750" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A750" s="2" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="751" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A751" s="1" t="s">
+    <row r="751" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A751" s="2" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="752" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A752" s="1" t="s">
+    <row r="752" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A752" s="2" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="753" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A753" s="1" t="s">
+    <row r="753" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A753" s="2" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="754" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A754" s="1" t="s">
+    <row r="754" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A754" s="2" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="755" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A755" s="1" t="s">
+    <row r="755" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A755" s="2" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="756" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A756" s="1" t="s">
+    <row r="756" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A756" s="2" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="757" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A757" s="1" t="s">
+    <row r="757" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A757" s="2" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="758" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A758" s="1" t="s">
+    <row r="758" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A758" s="2" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="759" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A759" s="1" t="s">
+    <row r="759" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A759" s="2" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="760" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A760" s="1" t="s">
+    <row r="760" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A760" s="2" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="761" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A761" s="1" t="s">
+    <row r="761" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A761" s="2" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="762" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A762" s="1" t="s">
+    <row r="762" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A762" s="2" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="763" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A763" s="1" t="s">
+    <row r="763" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A763" s="2" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="764" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A764" s="1" t="s">
+    <row r="764" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A764" s="2" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="765" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A765" s="1" t="s">
+    <row r="765" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A765" s="2" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="766" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A766" s="1" t="s">
+    <row r="766" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A766" s="2" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="767" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A767" s="1" t="s">
+    <row r="767" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A767" s="2" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="768" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A768" s="1" t="s">
+    <row r="768" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A768" s="2" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="769" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A769" s="1" t="s">
+    <row r="769" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A769" s="2" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="770" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A770" s="1" t="s">
+    <row r="770" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A770" s="2" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="771" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A771" s="1" t="s">
+    <row r="771" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A771" s="2" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="772" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A772" s="1" t="s">
+    <row r="772" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A772" s="2" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="773" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A773" s="1" t="s">
+    <row r="773" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A773" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="774" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A774" s="1" t="s">
+    <row r="774" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A774" s="2" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="775" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A775" s="1" t="s">
+    <row r="775" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A775" s="2" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="776" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A776" s="1" t="s">
+    <row r="776" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A776" s="2" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="777" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A777" s="1" t="s">
+    <row r="777" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A777" s="2" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="778" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A778" s="1" t="s">
+    <row r="778" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A778" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="779" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A779" s="1" t="s">
+    <row r="779" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A779" s="2" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="780" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A780" s="1" t="s">
+    <row r="780" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A780" s="2" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="781" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A781" s="1" t="s">
+    <row r="781" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A781" s="2" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="782" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A782" s="1" t="s">
+    <row r="782" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A782" s="2" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="783" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A783" s="1" t="s">
+    <row r="783" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A783" s="2" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="784" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A784" s="1" t="s">
+    <row r="784" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A784" s="2" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="785" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A785" s="1" t="s">
+    <row r="785" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A785" s="2" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="786" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A786" s="1" t="s">
+    <row r="786" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A786" s="2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="787" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A787" s="1" t="s">
+    <row r="787" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A787" s="2" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="788" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A788" s="1" t="s">
+    <row r="788" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A788" s="2" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="789" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A789" s="1" t="s">
+    <row r="789" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A789" s="2" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="790" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A790" s="1" t="s">
+    <row r="790" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A790" s="2" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="791" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A791" s="1" t="s">
+    <row r="791" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A791" s="2" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="792" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A792" s="1" t="s">
+    <row r="792" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A792" s="2" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="793" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A793" s="1" t="s">
+    <row r="793" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A793" s="2" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="794" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A794" s="1" t="s">
+    <row r="794" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A794" s="2" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="795" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A795" s="1" t="s">
+    <row r="795" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A795" s="2" t="s">
         <v>803</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/a.xlsx
+++ b/excel/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\dev\Google_Bot\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC580878-4C18-448C-AAD0-3F2A08604488}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D951E1-50FE-4B61-B206-D816B71ADCCC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="805">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Bonnisan picaturi contra colicilor x30ml</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>Branula cu valva G20 Trimed</t>
@@ -2438,7 +2441,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2449,6 +2452,14 @@
     <font>
       <sz val="15"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2471,10 +2482,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2483,8 +2495,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2799,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J795"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2853,5941 +2867,4473 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="B2" t="str">
+        <f>HYPERLINK("photos\A1001.jpg","A1001.jpg")</f>
+        <v>A1001.jpg</v>
+      </c>
+      <c r="C2" t="str">
+        <f>HYPERLINK("photos\A1002.jpg","A1002.jpg")</f>
+        <v>A1002.jpg</v>
+      </c>
+      <c r="D2" t="str">
+        <f>HYPERLINK("photos\A1003.jpg","A1003.jpg")</f>
+        <v>A1003.jpg</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>HYPERLINK("photos\A1021.jpg","A1021.jpg")</f>
+        <v>A1021.jpg</v>
+      </c>
+      <c r="C4" t="str">
+        <f>HYPERLINK("photos\A1022.jpg","A1022.jpg")</f>
+        <v>A1022.jpg</v>
+      </c>
+      <c r="D4" t="str">
+        <f>HYPERLINK("photos\A1023.jpg","A1023.jpg")</f>
+        <v>A1023.jpg</v>
+      </c>
+      <c r="E4" t="str">
+        <f>HYPERLINK("photos\A1024.jpg","A1024.jpg")</f>
+        <v>A1024.jpg</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
+        <v>14</v>
+      </c>
+      <c r="B5" t="str">
+        <f>HYPERLINK("photos\A1031.jpg","A1031.jpg")</f>
+        <v>A1031.jpg</v>
+      </c>
+      <c r="C5" t="str">
+        <f>HYPERLINK("photos\A1032.jpg","A1032.jpg")</f>
+        <v>A1032.jpg</v>
+      </c>
+      <c r="D5" t="str">
+        <f>HYPERLINK("photos\A1033.jpg","A1033.jpg")</f>
+        <v>A1033.jpg</v>
+      </c>
+      <c r="E5" t="str">
+        <f>HYPERLINK("photos\A1034.jpg","A1034.jpg")</f>
+        <v>A1034.jpg</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
+        <v>15</v>
+      </c>
+      <c r="B6" t="str">
+        <f>HYPERLINK("photos\A1041.jpg","A1041.jpg")</f>
+        <v>A1041.jpg</v>
+      </c>
+      <c r="C6" t="str">
+        <f>HYPERLINK("photos\A1042.jpg","A1042.jpg")</f>
+        <v>A1042.jpg</v>
+      </c>
+      <c r="D6" t="str">
+        <f>HYPERLINK("photos\A1043.jpg","A1043.jpg")</f>
+        <v>A1043.jpg</v>
+      </c>
+      <c r="E6" t="str">
+        <f>HYPERLINK("photos\A1044.jpg","A1044.jpg")</f>
+        <v>A1044.jpg</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
+        <v>16</v>
+      </c>
+      <c r="B7" t="str">
+        <f>HYPERLINK("photos\A1051.jpg","A1051.jpg")</f>
+        <v>A1051.jpg</v>
+      </c>
+      <c r="C7" t="str">
+        <f>HYPERLINK("photos\A1052.jpg","A1052.jpg")</f>
+        <v>A1052.jpg</v>
+      </c>
+      <c r="D7" t="str">
+        <f>HYPERLINK("photos\A1053.jpg","A1053.jpg")</f>
+        <v>A1053.jpg</v>
+      </c>
+      <c r="E7" t="str">
+        <f>HYPERLINK("photos\A1054.jpg","A1054.jpg")</f>
+        <v>A1054.jpg</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
+        <v>17</v>
+      </c>
+      <c r="B8" t="str">
+        <f>HYPERLINK("photos\A1061.jpg","A1061.jpg")</f>
+        <v>A1061.jpg</v>
+      </c>
+      <c r="C8" t="str">
+        <f>HYPERLINK("photos\A1062.jpg","A1062.jpg")</f>
+        <v>A1062.jpg</v>
+      </c>
+      <c r="D8" t="str">
+        <f>HYPERLINK("photos\A1063.jpg","A1063.jpg")</f>
+        <v>A1063.jpg</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
+        <v>18</v>
+      </c>
+      <c r="B9" t="str">
+        <f>HYPERLINK("photos\A1071.jpg","A1071.jpg")</f>
+        <v>A1071.jpg</v>
+      </c>
+      <c r="C9" t="str">
+        <f>HYPERLINK("photos\A1072.jpg","A1072.jpg")</f>
+        <v>A1072.jpg</v>
+      </c>
+      <c r="D9" t="str">
+        <f>HYPERLINK("photos\A1073.jpg","A1073.jpg")</f>
+        <v>A1073.jpg</v>
+      </c>
+      <c r="E9" t="str">
+        <f>HYPERLINK("photos\A1074.jpg","A1074.jpg")</f>
+        <v>A1074.jpg</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
+        <v>19</v>
+      </c>
+      <c r="B10" t="str">
+        <f>HYPERLINK("photos\A1081.jpg","A1081.jpg")</f>
+        <v>A1081.jpg</v>
+      </c>
+      <c r="C10" t="str">
+        <f>HYPERLINK("photos\A1082.jpg","A1082.jpg")</f>
+        <v>A1082.jpg</v>
+      </c>
+      <c r="D10" t="str">
+        <f>HYPERLINK("photos\A1083.jpg","A1083.jpg")</f>
+        <v>A1083.jpg</v>
+      </c>
+      <c r="E10" t="str">
+        <f>HYPERLINK("photos\A1084.jpg","A1084.jpg")</f>
+        <v>A1084.jpg</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
+        <v>20</v>
+      </c>
+      <c r="B11" t="str">
+        <f>HYPERLINK("photos\A1091.jpg","A1091.jpg")</f>
+        <v>A1091.jpg</v>
+      </c>
+      <c r="C11" t="str">
+        <f>HYPERLINK("photos\A1092.jpg","A1092.jpg")</f>
+        <v>A1092.jpg</v>
+      </c>
+      <c r="D11" t="str">
+        <f>HYPERLINK("photos\A1093.jpg","A1093.jpg")</f>
+        <v>A1093.jpg</v>
+      </c>
+      <c r="E11" t="str">
+        <f>HYPERLINK("photos\A1094.jpg","A1094.jpg")</f>
+        <v>A1094.jpg</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
+        <v>21</v>
+      </c>
+      <c r="B12" t="str">
+        <f>HYPERLINK("photos\A1101.jpg","A1101.jpg")</f>
+        <v>A1101.jpg</v>
+      </c>
+      <c r="C12" t="str">
+        <f>HYPERLINK("photos\A1102.jpg","A1102.jpg")</f>
+        <v>A1102.jpg</v>
+      </c>
+      <c r="D12" t="str">
+        <f>HYPERLINK("photos\A1103.jpg","A1103.jpg")</f>
+        <v>A1103.jpg</v>
+      </c>
+      <c r="E12" t="str">
+        <f>HYPERLINK("photos\A1104.jpg","A1104.jpg")</f>
+        <v>A1104.jpg</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
+        <v>22</v>
+      </c>
+      <c r="B13" t="str">
+        <f>HYPERLINK("photos\A1111.jpg","A1111.jpg")</f>
+        <v>A1111.jpg</v>
+      </c>
+      <c r="C13" t="str">
+        <f>HYPERLINK("photos\A1112.jpg","A1112.jpg")</f>
+        <v>A1112.jpg</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="str">
+        <f>HYPERLINK("photos\A1114.jpg","A1114.jpg")</f>
+        <v>A1114.jpg</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="str">
+        <f>HYPERLINK("photos\A1121.jpg","A1121.jpg")</f>
+        <v>A1121.jpg</v>
+      </c>
+      <c r="C14" t="str">
+        <f>HYPERLINK("photos\A1122.jpg","A1122.jpg")</f>
+        <v>A1122.jpg</v>
+      </c>
+      <c r="D14" t="str">
+        <f>HYPERLINK("photos\A1123.jpg","A1123.jpg")</f>
+        <v>A1123.jpg</v>
+      </c>
+      <c r="E14" t="str">
+        <f>HYPERLINK("photos\A1124.jpg","A1124.jpg")</f>
+        <v>A1124.jpg</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
+        <v>24</v>
+      </c>
+      <c r="B15" t="str">
+        <f>HYPERLINK("photos\A1131.jpg","A1131.jpg")</f>
+        <v>A1131.jpg</v>
+      </c>
+      <c r="C15" t="str">
+        <f>HYPERLINK("photos\A1132.jpg","A1132.jpg")</f>
+        <v>A1132.jpg</v>
+      </c>
+      <c r="D15" t="str">
+        <f>HYPERLINK("photos\A1133.jpg","A1133.jpg")</f>
+        <v>A1133.jpg</v>
+      </c>
+      <c r="E15" t="str">
+        <f>HYPERLINK("photos\A1134.jpg","A1134.jpg")</f>
+        <v>A1134.jpg</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="B16" t="str">
+        <f>HYPERLINK("photos\A1141.jpg","A1141.jpg")</f>
+        <v>A1141.jpg</v>
+      </c>
+      <c r="C16" t="str">
+        <f>HYPERLINK("photos\A1142.jpg","A1142.jpg")</f>
+        <v>A1142.jpg</v>
+      </c>
+      <c r="D16" t="str">
+        <f>HYPERLINK("photos\A1143.jpg","A1143.jpg")</f>
+        <v>A1143.jpg</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="B17" t="str">
+        <f>HYPERLINK("photos\A1151.jpg","A1151.jpg")</f>
+        <v>A1151.jpg</v>
+      </c>
+      <c r="C17" t="str">
+        <f>HYPERLINK("photos\A1152.jpg","A1152.jpg")</f>
+        <v>A1152.jpg</v>
+      </c>
+      <c r="D17" t="str">
+        <f>HYPERLINK("photos\A1153.jpg","A1153.jpg")</f>
+        <v>A1153.jpg</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="str">
+        <f>HYPERLINK("photos\A1162.jpg","A1162.jpg")</f>
+        <v>A1162.jpg</v>
+      </c>
+      <c r="D18" t="str">
+        <f>HYPERLINK("photos\A1163.jpg","A1163.jpg")</f>
+        <v>A1163.jpg</v>
+      </c>
+      <c r="E18" t="str">
+        <f>HYPERLINK("photos\A1164.jpg","A1164.jpg")</f>
+        <v>A1164.jpg</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="B19" t="str">
+        <f>HYPERLINK("photos\A1171.jpg","A1171.jpg")</f>
+        <v>A1171.jpg</v>
+      </c>
+      <c r="C19" t="str">
+        <f>HYPERLINK("photos\A1172.jpg","A1172.jpg")</f>
+        <v>A1172.jpg</v>
+      </c>
+      <c r="D19" t="str">
+        <f>HYPERLINK("photos\A1173.jpg","A1173.jpg")</f>
+        <v>A1173.jpg</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+      <c r="B20" t="str">
+        <f>HYPERLINK("photos\A1181.jpg","A1181.jpg")</f>
+        <v>A1181.jpg</v>
+      </c>
+      <c r="C20" t="str">
+        <f>HYPERLINK("photos\A1182.jpg","A1182.jpg")</f>
+        <v>A1182.jpg</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+      <c r="B21" t="str">
+        <f>HYPERLINK("photos\A1191.jpg","A1191.jpg")</f>
+        <v>A1191.jpg</v>
+      </c>
+      <c r="C21" t="str">
+        <f>HYPERLINK("photos\A1192.jpg","A1192.jpg")</f>
+        <v>A1192.jpg</v>
+      </c>
+      <c r="D21" t="str">
+        <f>HYPERLINK("photos\A1193.jpg","A1193.jpg")</f>
+        <v>A1193.jpg</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="str">
+        <f>HYPERLINK("photos\A1202.jpg","A1202.jpg")</f>
+        <v>A1202.jpg</v>
+      </c>
+      <c r="D22" t="str">
+        <f>HYPERLINK("photos\A1203.jpg","A1203.jpg")</f>
+        <v>A1203.jpg</v>
+      </c>
+      <c r="E22" t="str">
+        <f>HYPERLINK("photos\A1204.jpg","A1204.jpg")</f>
+        <v>A1204.jpg</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-    </row>
-    <row r="24" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="B23" t="str">
+        <f>HYPERLINK("photos\A1211.jpg","A1211.jpg")</f>
+        <v>A1211.jpg</v>
+      </c>
+      <c r="C23" t="str">
+        <f>HYPERLINK("photos\A1212.jpg","A1212.jpg")</f>
+        <v>A1212.jpg</v>
+      </c>
+      <c r="D23" t="str">
+        <f>HYPERLINK("photos\A1213.jpg","A1213.jpg")</f>
+        <v>A1213.jpg</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-    </row>
-    <row r="25" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="str">
+        <f>HYPERLINK("photos\A1222.jpg","A1222.jpg")</f>
+        <v>A1222.jpg</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="str">
+        <f>HYPERLINK("photos\A1224.jpg","A1224.jpg")</f>
+        <v>A1224.jpg</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="B25" t="str">
+        <f>HYPERLINK("photos\A1231.jpg","A1231.jpg")</f>
+        <v>A1231.jpg</v>
+      </c>
+      <c r="C25" t="str">
+        <f>HYPERLINK("photos\A1232.jpg","A1232.jpg")</f>
+        <v>A1232.jpg</v>
+      </c>
+      <c r="D25" t="str">
+        <f>HYPERLINK("photos\A1233.jpg","A1233.jpg")</f>
+        <v>A1233.jpg</v>
+      </c>
+      <c r="E25" t="str">
+        <f>HYPERLINK("photos\A1234.jpg","A1234.jpg")</f>
+        <v>A1234.jpg</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+      <c r="B26" t="str">
+        <f>HYPERLINK("photos\A1241.jpg","A1241.jpg")</f>
+        <v>A1241.jpg</v>
+      </c>
+      <c r="C26" t="str">
+        <f>HYPERLINK("photos\A1242.jpg","A1242.jpg")</f>
+        <v>A1242.jpg</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="str">
+        <f>HYPERLINK("photos\A1252.jpg","A1252.jpg")</f>
+        <v>A1252.jpg</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="str">
+        <f>HYPERLINK("photos\A1254.jpg","A1254.jpg")</f>
+        <v>A1254.jpg</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+      <c r="B28" t="str">
+        <f>HYPERLINK("photos\A1261.jpg","A1261.jpg")</f>
+        <v>A1261.jpg</v>
+      </c>
+      <c r="C28" t="str">
+        <f>HYPERLINK("photos\A1262.jpg","A1262.jpg")</f>
+        <v>A1262.jpg</v>
+      </c>
+      <c r="D28" t="str">
+        <f>HYPERLINK("photos\A1263.jpg","A1263.jpg")</f>
+        <v>A1263.jpg</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-    </row>
-    <row r="30" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+      <c r="B29" t="str">
+        <f>HYPERLINK("photos\A1271.jpg","A1271.jpg")</f>
+        <v>A1271.jpg</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="str">
+        <f>HYPERLINK("photos\A1273.jpg","A1273.jpg")</f>
+        <v>A1273.jpg</v>
+      </c>
+      <c r="E29" t="str">
+        <f>HYPERLINK("photos\A1274.jpg","A1274.jpg")</f>
+        <v>A1274.jpg</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+      <c r="B30" t="str">
+        <f>HYPERLINK("photos\A1281.jpg","A1281.jpg")</f>
+        <v>A1281.jpg</v>
+      </c>
+      <c r="C30" t="str">
+        <f>HYPERLINK("photos\A1282.jpg","A1282.jpg")</f>
+        <v>A1282.jpg</v>
+      </c>
+      <c r="D30" t="str">
+        <f>HYPERLINK("photos\A1283.jpg","A1283.jpg")</f>
+        <v>A1283.jpg</v>
+      </c>
+      <c r="E30" t="str">
+        <f>HYPERLINK("photos\A1284.jpg","A1284.jpg")</f>
+        <v>A1284.jpg</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-    </row>
-    <row r="32" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="B31" t="str">
+        <f>HYPERLINK("photos\A1291.jpg","A1291.jpg")</f>
+        <v>A1291.jpg</v>
+      </c>
+      <c r="C31" t="str">
+        <f>HYPERLINK("photos\A1292.jpg","A1292.jpg")</f>
+        <v>A1292.jpg</v>
+      </c>
+      <c r="D31" t="str">
+        <f>HYPERLINK("photos\A1293.jpg","A1293.jpg")</f>
+        <v>A1293.jpg</v>
+      </c>
+      <c r="E31" t="str">
+        <f>HYPERLINK("photos\A1294.jpg","A1294.jpg")</f>
+        <v>A1294.jpg</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-    </row>
-    <row r="33" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+      <c r="B32" t="str">
+        <f>HYPERLINK("photos\A1301.jpg","A1301.jpg")</f>
+        <v>A1301.jpg</v>
+      </c>
+      <c r="C32" t="str">
+        <f>HYPERLINK("photos\A1302.jpg","A1302.jpg")</f>
+        <v>A1302.jpg</v>
+      </c>
+      <c r="D32" t="str">
+        <f>HYPERLINK("photos\A1303.jpg","A1303.jpg")</f>
+        <v>A1303.jpg</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-    </row>
-    <row r="34" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="str">
+        <f>HYPERLINK("photos\A1312.jpg","A1312.jpg")</f>
+        <v>A1312.jpg</v>
+      </c>
+      <c r="D33" t="str">
+        <f>HYPERLINK("photos\A1313.jpg","A1313.jpg")</f>
+        <v>A1313.jpg</v>
+      </c>
+      <c r="E33" t="str">
+        <f>HYPERLINK("photos\A1314.jpg","A1314.jpg")</f>
+        <v>A1314.jpg</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-    </row>
-    <row r="35" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="B34" t="str">
+        <f>HYPERLINK("photos\A1321.jpg","A1321.jpg")</f>
+        <v>A1321.jpg</v>
+      </c>
+      <c r="C34" t="str">
+        <f>HYPERLINK("photos\A1322.jpg","A1322.jpg")</f>
+        <v>A1322.jpg</v>
+      </c>
+      <c r="D34" t="str">
+        <f>HYPERLINK("photos\A1323.jpg","A1323.jpg")</f>
+        <v>A1323.jpg</v>
+      </c>
+      <c r="E34" t="str">
+        <f>HYPERLINK("photos\A1324.jpg","A1324.jpg")</f>
+        <v>A1324.jpg</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-    </row>
-    <row r="36" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-    </row>
-    <row r="37" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-    </row>
-    <row r="38" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-    </row>
-    <row r="39" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-    </row>
-    <row r="40" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-    </row>
-    <row r="41" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-    </row>
-    <row r="42" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-    </row>
-    <row r="43" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-    </row>
-    <row r="44" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-    </row>
-    <row r="45" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-    </row>
-    <row r="46" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-    </row>
-    <row r="47" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-    </row>
-    <row r="48" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-    </row>
-    <row r="49" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-    </row>
-    <row r="50" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-    </row>
-    <row r="51" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-    </row>
-    <row r="52" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-    </row>
-    <row r="53" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-    </row>
-    <row r="54" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-    </row>
-    <row r="55" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-    </row>
-    <row r="56" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-    </row>
-    <row r="57" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-    </row>
-    <row r="58" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-    </row>
-    <row r="60" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-    </row>
-    <row r="61" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-    </row>
-    <row r="62" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-    </row>
-    <row r="63" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-    </row>
-    <row r="64" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-    </row>
-    <row r="65" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-    </row>
-    <row r="66" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-    </row>
-    <row r="67" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-    </row>
-    <row r="68" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-    </row>
-    <row r="69" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-    </row>
-    <row r="70" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-    </row>
-    <row r="71" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-    </row>
-    <row r="72" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-    </row>
-    <row r="73" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-    </row>
-    <row r="74" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-    </row>
-    <row r="75" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-    </row>
-    <row r="76" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-    </row>
-    <row r="77" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-    </row>
-    <row r="78" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
-    </row>
-    <row r="79" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
-    </row>
-    <row r="80" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-    </row>
-    <row r="81" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-    </row>
-    <row r="82" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-    </row>
-    <row r="83" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-    </row>
-    <row r="84" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-    </row>
-    <row r="85" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-    </row>
-    <row r="86" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-    </row>
-    <row r="87" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
-    </row>
-    <row r="88" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-    </row>
-    <row r="89" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-    </row>
-    <row r="90" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-    </row>
-    <row r="91" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
-    </row>
-    <row r="92" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
-    </row>
-    <row r="93" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-    </row>
-    <row r="94" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-    </row>
-    <row r="95" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-    </row>
-    <row r="96" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-    </row>
-    <row r="97" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-    </row>
-    <row r="98" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-    </row>
-    <row r="99" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-    </row>
-    <row r="100" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-    </row>
-    <row r="101" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-      <c r="J101"/>
-    </row>
-    <row r="102" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
-    </row>
-    <row r="103" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
-      <c r="J103"/>
-    </row>
-    <row r="104" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
-    </row>
-    <row r="105" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
-    </row>
-    <row r="106" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-    </row>
-    <row r="107" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
-    </row>
-    <row r="108" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
-    </row>
-    <row r="109" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
-    </row>
-    <row r="110" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
-    </row>
-    <row r="111" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
-    </row>
-    <row r="112" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="I112"/>
-      <c r="J112"/>
-    </row>
-    <row r="113" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
-      <c r="J113"/>
-    </row>
-    <row r="114" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114"/>
-    </row>
-    <row r="115" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115"/>
-    </row>
-    <row r="116" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116"/>
-    </row>
-    <row r="117" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117"/>
-    </row>
-    <row r="118" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
-    </row>
-    <row r="119" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
-    </row>
-    <row r="120" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120"/>
-    </row>
-    <row r="121" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
-    </row>
-    <row r="122" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
-    </row>
-    <row r="123" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123"/>
-    </row>
-    <row r="124" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124"/>
-    </row>
-    <row r="125" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125"/>
-      <c r="J125"/>
-    </row>
-    <row r="126" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126"/>
-      <c r="J126"/>
-    </row>
-    <row r="127" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
-      <c r="H127"/>
-      <c r="I127"/>
-      <c r="J127"/>
-    </row>
-    <row r="128" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128"/>
-      <c r="G128"/>
-      <c r="H128"/>
-      <c r="I128"/>
-      <c r="J128"/>
-    </row>
-    <row r="129" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129"/>
-      <c r="J129"/>
-    </row>
-    <row r="130" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130"/>
-      <c r="G130"/>
-      <c r="H130"/>
-      <c r="I130"/>
-      <c r="J130"/>
-    </row>
-    <row r="131" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
-      <c r="G131"/>
-      <c r="H131"/>
-      <c r="I131"/>
-      <c r="J131"/>
-    </row>
-    <row r="132" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="E132"/>
-      <c r="F132"/>
-      <c r="G132"/>
-      <c r="H132"/>
-      <c r="I132"/>
-      <c r="J132"/>
-    </row>
-    <row r="133" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
-      <c r="G133"/>
-      <c r="H133"/>
-      <c r="I133"/>
-      <c r="J133"/>
-    </row>
-    <row r="134" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
-      <c r="G134"/>
-      <c r="H134"/>
-      <c r="I134"/>
-      <c r="J134"/>
-    </row>
-    <row r="135" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135"/>
-      <c r="G135"/>
-      <c r="H135"/>
-      <c r="I135"/>
-      <c r="J135"/>
-    </row>
-    <row r="136" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B136"/>
-      <c r="C136"/>
-      <c r="D136"/>
-      <c r="E136"/>
-      <c r="F136"/>
-      <c r="G136"/>
-      <c r="H136"/>
-      <c r="I136"/>
-      <c r="J136"/>
-    </row>
-    <row r="137" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
-      <c r="F137"/>
-      <c r="G137"/>
-      <c r="H137"/>
-      <c r="I137"/>
-      <c r="J137"/>
-    </row>
-    <row r="138" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
-      <c r="G138"/>
-      <c r="H138"/>
-      <c r="I138"/>
-      <c r="J138"/>
-    </row>
-    <row r="139" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B139"/>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
-      <c r="G139"/>
-      <c r="H139"/>
-      <c r="I139"/>
-      <c r="J139"/>
-    </row>
-    <row r="140" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140"/>
-      <c r="E140"/>
-      <c r="F140"/>
-      <c r="G140"/>
-      <c r="H140"/>
-      <c r="I140"/>
-      <c r="J140"/>
-    </row>
-    <row r="141" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B141"/>
-      <c r="C141"/>
-      <c r="D141"/>
-      <c r="E141"/>
-      <c r="F141"/>
-      <c r="G141"/>
-      <c r="H141"/>
-      <c r="I141"/>
-      <c r="J141"/>
-    </row>
-    <row r="142" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B142"/>
-      <c r="C142"/>
-      <c r="D142"/>
-      <c r="E142"/>
-      <c r="F142"/>
-      <c r="G142"/>
-      <c r="H142"/>
-      <c r="I142"/>
-      <c r="J142"/>
-    </row>
-    <row r="143" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B143"/>
-      <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143"/>
-      <c r="F143"/>
-      <c r="G143"/>
-      <c r="H143"/>
-      <c r="I143"/>
-      <c r="J143"/>
-    </row>
-    <row r="144" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
-      <c r="H144"/>
-      <c r="I144"/>
-      <c r="J144"/>
-    </row>
-    <row r="145" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B145"/>
-      <c r="C145"/>
-      <c r="D145"/>
-      <c r="E145"/>
-      <c r="F145"/>
-      <c r="G145"/>
-      <c r="H145"/>
-      <c r="I145"/>
-      <c r="J145"/>
-    </row>
-    <row r="146" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B146"/>
-      <c r="C146"/>
-      <c r="D146"/>
-      <c r="E146"/>
-      <c r="F146"/>
-      <c r="G146"/>
-      <c r="H146"/>
-      <c r="I146"/>
-      <c r="J146"/>
-    </row>
-    <row r="147" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B147"/>
-      <c r="C147"/>
-      <c r="D147"/>
-      <c r="E147"/>
-      <c r="F147"/>
-      <c r="G147"/>
-      <c r="H147"/>
-      <c r="I147"/>
-      <c r="J147"/>
-    </row>
-    <row r="148" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B148"/>
-      <c r="C148"/>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-      <c r="G148"/>
-      <c r="H148"/>
-      <c r="I148"/>
-      <c r="J148"/>
-    </row>
-    <row r="149" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B149"/>
-      <c r="C149"/>
-      <c r="D149"/>
-      <c r="E149"/>
-      <c r="F149"/>
-      <c r="G149"/>
-      <c r="H149"/>
-      <c r="I149"/>
-      <c r="J149"/>
-    </row>
-    <row r="150" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B150"/>
-      <c r="C150"/>
-      <c r="D150"/>
-      <c r="E150"/>
-      <c r="F150"/>
-      <c r="G150"/>
-      <c r="H150"/>
-      <c r="I150"/>
-      <c r="J150"/>
-    </row>
-    <row r="151" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B151"/>
-      <c r="C151"/>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
-      <c r="G151"/>
-      <c r="H151"/>
-      <c r="I151"/>
-      <c r="J151"/>
-    </row>
-    <row r="152" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B152"/>
-      <c r="C152"/>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152"/>
-      <c r="G152"/>
-      <c r="H152"/>
-      <c r="I152"/>
-      <c r="J152"/>
-    </row>
-    <row r="153" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B153"/>
-      <c r="C153"/>
-      <c r="D153"/>
-      <c r="E153"/>
-      <c r="F153"/>
-      <c r="G153"/>
-      <c r="H153"/>
-      <c r="I153"/>
-      <c r="J153"/>
-    </row>
-    <row r="154" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B154"/>
-      <c r="C154"/>
-      <c r="D154"/>
-      <c r="E154"/>
-      <c r="F154"/>
-      <c r="G154"/>
-      <c r="H154"/>
-      <c r="I154"/>
-      <c r="J154"/>
-    </row>
-    <row r="155" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B155"/>
-      <c r="C155"/>
-      <c r="D155"/>
-      <c r="E155"/>
-      <c r="F155"/>
-      <c r="G155"/>
-      <c r="H155"/>
-      <c r="I155"/>
-      <c r="J155"/>
-    </row>
-    <row r="156" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B156"/>
-      <c r="C156"/>
-      <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
-      <c r="G156"/>
-      <c r="H156"/>
-      <c r="I156"/>
-      <c r="J156"/>
-    </row>
-    <row r="157" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B157"/>
-      <c r="C157"/>
-      <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157"/>
-      <c r="G157"/>
-      <c r="H157"/>
-      <c r="I157"/>
-      <c r="J157"/>
-    </row>
-    <row r="158" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B158"/>
-      <c r="C158"/>
-      <c r="D158"/>
-      <c r="E158"/>
-      <c r="F158"/>
-      <c r="G158"/>
-      <c r="H158"/>
-      <c r="I158"/>
-      <c r="J158"/>
-    </row>
-    <row r="159" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B159"/>
-      <c r="C159"/>
-      <c r="D159"/>
-      <c r="E159"/>
-      <c r="F159"/>
-      <c r="G159"/>
-      <c r="H159"/>
-      <c r="I159"/>
-      <c r="J159"/>
-    </row>
-    <row r="160" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B160"/>
-      <c r="C160"/>
-      <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160"/>
-      <c r="G160"/>
-      <c r="H160"/>
-      <c r="I160"/>
-      <c r="J160"/>
-    </row>
-    <row r="161" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B161"/>
-      <c r="C161"/>
-      <c r="D161"/>
-      <c r="E161"/>
-      <c r="F161"/>
-      <c r="G161"/>
-      <c r="H161"/>
-      <c r="I161"/>
-      <c r="J161"/>
-    </row>
-    <row r="162" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B162"/>
-      <c r="C162"/>
-      <c r="D162"/>
-      <c r="E162"/>
-      <c r="F162"/>
-      <c r="G162"/>
-      <c r="H162"/>
-      <c r="I162"/>
-      <c r="J162"/>
-    </row>
-    <row r="163" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B163"/>
-      <c r="C163"/>
-      <c r="D163"/>
-      <c r="E163"/>
-      <c r="F163"/>
-      <c r="G163"/>
-      <c r="H163"/>
-      <c r="I163"/>
-      <c r="J163"/>
-    </row>
-    <row r="164" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B164"/>
-      <c r="C164"/>
-      <c r="D164"/>
-      <c r="E164"/>
-      <c r="F164"/>
-      <c r="G164"/>
-      <c r="H164"/>
-      <c r="I164"/>
-      <c r="J164"/>
-    </row>
-    <row r="165" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B165"/>
-      <c r="C165"/>
-      <c r="D165"/>
-      <c r="E165"/>
-      <c r="F165"/>
-      <c r="G165"/>
-      <c r="H165"/>
-      <c r="I165"/>
-      <c r="J165"/>
-    </row>
-    <row r="166" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B166"/>
-      <c r="C166"/>
-      <c r="D166"/>
-      <c r="E166"/>
-      <c r="F166"/>
-      <c r="G166"/>
-      <c r="H166"/>
-      <c r="I166"/>
-      <c r="J166"/>
-    </row>
-    <row r="167" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B167"/>
-      <c r="C167"/>
-      <c r="D167"/>
-      <c r="E167"/>
-      <c r="F167"/>
-      <c r="G167"/>
-      <c r="H167"/>
-      <c r="I167"/>
-      <c r="J167"/>
-    </row>
-    <row r="168" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B168"/>
-      <c r="C168"/>
-      <c r="D168"/>
-      <c r="E168"/>
-      <c r="F168"/>
-      <c r="G168"/>
-      <c r="H168"/>
-      <c r="I168"/>
-      <c r="J168"/>
-    </row>
-    <row r="169" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B169"/>
-      <c r="C169"/>
-      <c r="D169"/>
-      <c r="E169"/>
-      <c r="F169"/>
-      <c r="G169"/>
-      <c r="H169"/>
-      <c r="I169"/>
-      <c r="J169"/>
-    </row>
-    <row r="170" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B170"/>
-      <c r="C170"/>
-      <c r="D170"/>
-      <c r="E170"/>
-      <c r="F170"/>
-      <c r="G170"/>
-      <c r="H170"/>
-      <c r="I170"/>
-      <c r="J170"/>
-    </row>
-    <row r="171" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B171"/>
-      <c r="C171"/>
-      <c r="D171"/>
-      <c r="E171"/>
-      <c r="F171"/>
-      <c r="G171"/>
-      <c r="H171"/>
-      <c r="I171"/>
-      <c r="J171"/>
-    </row>
-    <row r="172" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B172"/>
-      <c r="C172"/>
-      <c r="D172"/>
-      <c r="E172"/>
-      <c r="F172"/>
-      <c r="G172"/>
-      <c r="H172"/>
-      <c r="I172"/>
-      <c r="J172"/>
-    </row>
-    <row r="173" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B173"/>
-      <c r="C173"/>
-      <c r="D173"/>
-      <c r="E173"/>
-      <c r="F173"/>
-      <c r="G173"/>
-      <c r="H173"/>
-      <c r="I173"/>
-      <c r="J173"/>
-    </row>
-    <row r="174" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B174"/>
-      <c r="C174"/>
-      <c r="D174"/>
-      <c r="E174"/>
-      <c r="F174"/>
-      <c r="G174"/>
-      <c r="H174"/>
-      <c r="I174"/>
-      <c r="J174"/>
-    </row>
-    <row r="175" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B175"/>
-      <c r="C175"/>
-      <c r="D175"/>
-      <c r="E175"/>
-      <c r="F175"/>
-      <c r="G175"/>
-      <c r="H175"/>
-      <c r="I175"/>
-      <c r="J175"/>
-    </row>
-    <row r="176" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B176"/>
-      <c r="C176"/>
-      <c r="D176"/>
-      <c r="E176"/>
-      <c r="F176"/>
-      <c r="G176"/>
-      <c r="H176"/>
-      <c r="I176"/>
-      <c r="J176"/>
-    </row>
-    <row r="177" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B177"/>
-      <c r="C177"/>
-      <c r="D177"/>
-      <c r="E177"/>
-      <c r="F177"/>
-      <c r="G177"/>
-      <c r="H177"/>
-      <c r="I177"/>
-      <c r="J177"/>
-    </row>
-    <row r="178" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B178"/>
-      <c r="C178"/>
-      <c r="D178"/>
-      <c r="E178"/>
-      <c r="F178"/>
-      <c r="G178"/>
-      <c r="H178"/>
-      <c r="I178"/>
-      <c r="J178"/>
-    </row>
-    <row r="179" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B179"/>
-      <c r="C179"/>
-      <c r="D179"/>
-      <c r="E179"/>
-      <c r="F179"/>
-      <c r="G179"/>
-      <c r="H179"/>
-      <c r="I179"/>
-      <c r="J179"/>
-    </row>
-    <row r="180" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B180"/>
-      <c r="C180"/>
-      <c r="D180"/>
-      <c r="E180"/>
-      <c r="F180"/>
-      <c r="G180"/>
-      <c r="H180"/>
-      <c r="I180"/>
-      <c r="J180"/>
-    </row>
-    <row r="181" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B181"/>
-      <c r="C181"/>
-      <c r="D181"/>
-      <c r="E181"/>
-      <c r="F181"/>
-      <c r="G181"/>
-      <c r="H181"/>
-      <c r="I181"/>
-      <c r="J181"/>
-    </row>
-    <row r="182" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B182"/>
-      <c r="C182"/>
-      <c r="D182"/>
-      <c r="E182"/>
-      <c r="F182"/>
-      <c r="G182"/>
-      <c r="H182"/>
-      <c r="I182"/>
-      <c r="J182"/>
-    </row>
-    <row r="183" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B183"/>
-      <c r="C183"/>
-      <c r="D183"/>
-      <c r="E183"/>
-      <c r="F183"/>
-      <c r="G183"/>
-      <c r="H183"/>
-      <c r="I183"/>
-      <c r="J183"/>
-    </row>
-    <row r="184" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B184"/>
-      <c r="C184"/>
-      <c r="D184"/>
-      <c r="E184"/>
-      <c r="F184"/>
-      <c r="G184"/>
-      <c r="H184"/>
-      <c r="I184"/>
-      <c r="J184"/>
-    </row>
-    <row r="185" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B185"/>
-      <c r="C185"/>
-      <c r="D185"/>
-      <c r="E185"/>
-      <c r="F185"/>
-      <c r="G185"/>
-      <c r="H185"/>
-      <c r="I185"/>
-      <c r="J185"/>
-    </row>
-    <row r="186" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B186"/>
-      <c r="C186"/>
-      <c r="D186"/>
-      <c r="E186"/>
-      <c r="F186"/>
-      <c r="G186"/>
-      <c r="H186"/>
-      <c r="I186"/>
-      <c r="J186"/>
-    </row>
-    <row r="187" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B187"/>
-      <c r="C187"/>
-      <c r="D187"/>
-      <c r="E187"/>
-      <c r="F187"/>
-      <c r="G187"/>
-      <c r="H187"/>
-      <c r="I187"/>
-      <c r="J187"/>
-    </row>
-    <row r="188" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B188"/>
-      <c r="C188"/>
-      <c r="D188"/>
-      <c r="E188"/>
-      <c r="F188"/>
-      <c r="G188"/>
-      <c r="H188"/>
-      <c r="I188"/>
-      <c r="J188"/>
-    </row>
-    <row r="189" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B189"/>
-      <c r="C189"/>
-      <c r="D189"/>
-      <c r="E189"/>
-      <c r="F189"/>
-      <c r="G189"/>
-      <c r="H189"/>
-      <c r="I189"/>
-      <c r="J189"/>
-    </row>
-    <row r="190" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B190"/>
-      <c r="C190"/>
-      <c r="D190"/>
-      <c r="E190"/>
-      <c r="F190"/>
-      <c r="G190"/>
-      <c r="H190"/>
-      <c r="I190"/>
-      <c r="J190"/>
-    </row>
-    <row r="191" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B191"/>
-      <c r="C191"/>
-      <c r="D191"/>
-      <c r="E191"/>
-      <c r="F191"/>
-      <c r="G191"/>
-      <c r="H191"/>
-      <c r="I191"/>
-      <c r="J191"/>
-    </row>
-    <row r="192" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B192"/>
-      <c r="C192"/>
-      <c r="D192"/>
-      <c r="E192"/>
-      <c r="F192"/>
-      <c r="G192"/>
-      <c r="H192"/>
-      <c r="I192"/>
-      <c r="J192"/>
-    </row>
-    <row r="193" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B193"/>
-      <c r="C193"/>
-      <c r="D193"/>
-      <c r="E193"/>
-      <c r="F193"/>
-      <c r="G193"/>
-      <c r="H193"/>
-      <c r="I193"/>
-      <c r="J193"/>
-    </row>
-    <row r="194" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B194"/>
-      <c r="C194"/>
-      <c r="D194"/>
-      <c r="E194"/>
-      <c r="F194"/>
-      <c r="G194"/>
-      <c r="H194"/>
-      <c r="I194"/>
-      <c r="J194"/>
-    </row>
-    <row r="195" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B195"/>
-      <c r="C195"/>
-      <c r="D195"/>
-      <c r="E195"/>
-      <c r="F195"/>
-      <c r="G195"/>
-      <c r="H195"/>
-      <c r="I195"/>
-      <c r="J195"/>
-    </row>
-    <row r="196" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B196"/>
-      <c r="C196"/>
-      <c r="D196"/>
-      <c r="E196"/>
-      <c r="F196"/>
-      <c r="G196"/>
-      <c r="H196"/>
-      <c r="I196"/>
-      <c r="J196"/>
-    </row>
-    <row r="197" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B197"/>
-      <c r="C197"/>
-      <c r="D197"/>
-      <c r="E197"/>
-      <c r="F197"/>
-      <c r="G197"/>
-      <c r="H197"/>
-      <c r="I197"/>
-      <c r="J197"/>
-    </row>
-    <row r="198" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B198"/>
-      <c r="C198"/>
-      <c r="D198"/>
-      <c r="E198"/>
-      <c r="F198"/>
-      <c r="G198"/>
-      <c r="H198"/>
-      <c r="I198"/>
-      <c r="J198"/>
-    </row>
-    <row r="199" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B199"/>
-      <c r="C199"/>
-      <c r="D199"/>
-      <c r="E199"/>
-      <c r="F199"/>
-      <c r="G199"/>
-      <c r="H199"/>
-      <c r="I199"/>
-      <c r="J199"/>
-    </row>
-    <row r="200" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B200"/>
-      <c r="C200"/>
-      <c r="D200"/>
-      <c r="E200"/>
-      <c r="F200"/>
-      <c r="G200"/>
-      <c r="H200"/>
-      <c r="I200"/>
-      <c r="J200"/>
-    </row>
-    <row r="201" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B201"/>
-      <c r="C201"/>
-      <c r="D201"/>
-      <c r="E201"/>
-      <c r="F201"/>
-      <c r="G201"/>
-      <c r="H201"/>
-      <c r="I201"/>
-      <c r="J201"/>
-    </row>
-    <row r="202" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B202"/>
-      <c r="C202"/>
-      <c r="D202"/>
-      <c r="E202"/>
-      <c r="F202"/>
-      <c r="G202"/>
-      <c r="H202"/>
-      <c r="I202"/>
-      <c r="J202"/>
-    </row>
-    <row r="203" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B203"/>
-      <c r="C203"/>
-      <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
-      <c r="G203"/>
-      <c r="H203"/>
-      <c r="I203"/>
-      <c r="J203"/>
-    </row>
-    <row r="204" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B204"/>
-      <c r="C204"/>
-      <c r="D204"/>
-      <c r="E204"/>
-      <c r="F204"/>
-      <c r="G204"/>
-      <c r="H204"/>
-      <c r="I204"/>
-      <c r="J204"/>
-    </row>
-    <row r="205" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B205"/>
-      <c r="C205"/>
-      <c r="D205"/>
-      <c r="E205"/>
-      <c r="F205"/>
-      <c r="G205"/>
-      <c r="H205"/>
-      <c r="I205"/>
-      <c r="J205"/>
-    </row>
-    <row r="206" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B206"/>
-      <c r="C206"/>
-      <c r="D206"/>
-      <c r="E206"/>
-      <c r="F206"/>
-      <c r="G206"/>
-      <c r="H206"/>
-      <c r="I206"/>
-      <c r="J206"/>
-    </row>
-    <row r="207" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B207"/>
-      <c r="C207"/>
-      <c r="D207"/>
-      <c r="E207"/>
-      <c r="F207"/>
-      <c r="G207"/>
-      <c r="H207"/>
-      <c r="I207"/>
-      <c r="J207"/>
-    </row>
-    <row r="208" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B208"/>
-      <c r="C208"/>
-      <c r="D208"/>
-      <c r="E208"/>
-      <c r="F208"/>
-      <c r="G208"/>
-      <c r="H208"/>
-      <c r="I208"/>
-      <c r="J208"/>
-    </row>
-    <row r="209" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B209"/>
-      <c r="C209"/>
-      <c r="D209"/>
-      <c r="E209"/>
-      <c r="F209"/>
-      <c r="G209"/>
-      <c r="H209"/>
-      <c r="I209"/>
-      <c r="J209"/>
-    </row>
-    <row r="210" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B210"/>
-      <c r="C210"/>
-      <c r="D210"/>
-      <c r="E210"/>
-      <c r="F210"/>
-      <c r="G210"/>
-      <c r="H210"/>
-      <c r="I210"/>
-      <c r="J210"/>
-    </row>
-    <row r="211" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B211"/>
-      <c r="C211"/>
-      <c r="D211"/>
-      <c r="E211"/>
-      <c r="F211"/>
-      <c r="G211"/>
-      <c r="H211"/>
-      <c r="I211"/>
-      <c r="J211"/>
-    </row>
-    <row r="212" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B212"/>
-      <c r="C212"/>
-      <c r="D212"/>
-      <c r="E212"/>
-      <c r="F212"/>
-      <c r="G212"/>
-      <c r="H212"/>
-      <c r="I212"/>
-      <c r="J212"/>
-    </row>
-    <row r="213" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B213"/>
-      <c r="C213"/>
-      <c r="D213"/>
-      <c r="E213"/>
-      <c r="F213"/>
-      <c r="G213"/>
-      <c r="H213"/>
-      <c r="I213"/>
-      <c r="J213"/>
-    </row>
-    <row r="214" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B214"/>
-      <c r="C214"/>
-      <c r="D214"/>
-      <c r="E214"/>
-      <c r="F214"/>
-      <c r="G214"/>
-      <c r="H214"/>
-      <c r="I214"/>
-      <c r="J214"/>
-    </row>
-    <row r="215" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B215"/>
-      <c r="C215"/>
-      <c r="D215"/>
-      <c r="E215"/>
-      <c r="F215"/>
-      <c r="G215"/>
-      <c r="H215"/>
-      <c r="I215"/>
-      <c r="J215"/>
-    </row>
-    <row r="216" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B216"/>
-      <c r="C216"/>
-      <c r="D216"/>
-      <c r="E216"/>
-      <c r="F216"/>
-      <c r="G216"/>
-      <c r="H216"/>
-      <c r="I216"/>
-      <c r="J216"/>
-    </row>
-    <row r="217" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B217"/>
-      <c r="C217"/>
-      <c r="D217"/>
-      <c r="E217"/>
-      <c r="F217"/>
-      <c r="G217"/>
-      <c r="H217"/>
-      <c r="I217"/>
-      <c r="J217"/>
-    </row>
-    <row r="218" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B218"/>
-      <c r="C218"/>
-      <c r="D218"/>
-      <c r="E218"/>
-      <c r="F218"/>
-      <c r="G218"/>
-      <c r="H218"/>
-      <c r="I218"/>
-      <c r="J218"/>
-    </row>
-    <row r="219" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B219"/>
-      <c r="C219"/>
-      <c r="D219"/>
-      <c r="E219"/>
-      <c r="F219"/>
-      <c r="G219"/>
-      <c r="H219"/>
-      <c r="I219"/>
-      <c r="J219"/>
-    </row>
-    <row r="220" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B220"/>
-      <c r="C220"/>
-      <c r="D220"/>
-      <c r="E220"/>
-      <c r="F220"/>
-      <c r="G220"/>
-      <c r="H220"/>
-      <c r="I220"/>
-      <c r="J220"/>
-    </row>
-    <row r="221" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A273" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A274" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A294" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A295" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A308" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A309" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A310" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A312" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A313" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A314" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A315" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A316" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A317" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A318" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A319" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A320" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A321" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A322" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A323" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A324" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A326" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A327" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A328" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A329" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A330" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A331" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A332" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A333" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A334" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A335" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A336" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A337" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A345" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A346" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A347" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A348" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A349" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A350" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A351" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A352" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A353" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A354" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A355" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A356" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A357" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A358" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A359" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A360" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A361" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A362" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A363" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A364" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A365" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A366" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A367" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A368" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A369" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A370" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A371" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A372" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A373" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A374" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A375" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A376" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A377" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A378" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A379" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A380" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A381" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A382" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A383" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A384" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A385" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A386" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A387" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="388" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A388" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A389" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="390" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A390" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="391" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A391" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A392" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="393" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A393" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A394" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A395" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="396" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A396" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A397" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A398" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="399" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A399" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="400" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A400" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A401" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="402" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A402" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A403" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A404" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="405" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A405" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="406" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A406" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="407" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A407" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A408" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A409" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="411" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="412" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A412" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="413" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A413" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A414" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="415" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A415" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A416" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="417" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A417" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A418" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="419" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A419" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A420" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="421" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A421" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A422" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="423" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A423" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="424" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A424" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="425" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A425" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="426" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A426" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="427" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A427" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A428" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="429" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A429" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="430" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A430" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="431" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A431" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="432" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A432" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="433" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A433" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="434" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A434" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="435" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A435" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="436" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A436" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="437" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A437" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="438" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A438" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="439" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A439" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A440" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="441" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A441" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="442" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A442" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="443" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A443" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="444" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A444" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="445" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A445" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A446" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="447" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A447" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="448" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A448" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="449" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A449" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="450" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A450" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="451" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A451" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A452" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="453" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A453" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="454" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A454" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="455" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A455" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="456" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A456" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="457" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A457" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A458" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="459" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A459" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="460" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A460" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="461" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A461" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="462" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A462" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="463" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A463" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="464" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A464" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A465" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A466" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A467" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A468" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A469" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A470" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="471" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A471" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A472" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="473" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A473" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A474" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="475" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A475" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A476" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A477" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="478" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A478" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A479" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A480" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="481" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A481" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A482" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="483" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A483" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A484" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A485" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="486" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A486" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A487" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A488" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A489" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A490" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="491" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A491" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="492" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A492" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A493" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A494" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="495" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A495" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A496" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="497" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A497" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="498" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A498" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="499" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A499" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A500" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="501" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A501" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="502" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A502" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="503" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A503" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="504" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A504" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A505" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="506" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A506" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="507" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A507" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="508" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A508" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="509" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A509" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A510" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="511" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A511" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A512" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="513" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A513" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="514" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A514" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="515" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A515" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="516" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A516" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="517" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A517" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="518" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A518" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="519" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A519" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="520" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A520" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="521" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A521" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="522" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A522" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="523" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A523" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="524" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A524" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="525" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A525" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="526" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A526" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="527" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A527" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="528" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A528" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="529" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A529" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="530" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A530" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="531" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A531" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="532" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A532" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="533" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A533" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="534" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A534" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="535" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A535" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="536" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A536" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="537" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A537" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="538" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A538" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="539" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A539" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="540" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A540" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="541" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A541" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="542" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A542" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="543" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A543" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="544" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A544" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="545" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A545" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="546" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A546" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="547" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A547" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="548" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A548" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="549" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A549" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="550" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A550" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="551" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A551" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="552" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A552" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="553" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A553" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="554" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A554" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="555" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A555" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="556" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A556" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="557" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A557" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="558" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A558" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="559" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A559" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="560" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A560" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="561" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A561" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="562" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A562" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="563" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A563" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="564" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A564" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="565" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A565" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="566" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A566" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="567" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A567" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="568" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A568" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="569" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A569" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="570" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A570" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="571" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A571" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="572" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A572" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="573" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A573" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="574" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A574" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="575" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A575" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="576" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A576" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="577" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A577" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="578" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A578" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="579" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A579" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="580" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A580" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="581" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A581" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="582" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A582" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="583" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A583" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="584" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A584" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="585" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A585" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="586" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A586" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="587" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A587" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="588" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A588" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="589" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A589" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="590" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A590" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="591" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A591" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="592" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A592" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="593" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A593" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="594" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A594" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="595" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A595" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="596" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A596" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="597" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A597" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="598" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A598" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="599" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A599" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="600" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A600" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="601" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A601" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="602" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A602" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="603" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A603" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="604" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A604" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="605" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A605" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="606" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A606" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="607" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A607" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="608" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A608" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="609" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A609" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="610" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A610" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="611" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A611" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="612" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A612" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="613" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A613" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="614" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A614" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="615" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A615" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="616" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A616" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="617" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A617" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="618" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A618" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="619" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A619" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="620" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A620" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="621" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A621" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="622" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A622" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="623" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A623" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="624" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A624" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="625" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A625" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="626" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A626" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="627" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A627" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="628" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A628" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="629" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A629" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="630" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A630" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="631" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A631" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="632" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A632" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="633" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A633" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="634" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A634" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="635" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A635" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="636" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A636" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="637" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A637" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="638" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A638" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="639" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A639" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="640" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A640" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="641" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A641" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="642" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A642" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="643" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A643" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="644" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A644" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="645" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A645" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="646" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A646" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="647" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A647" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="648" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A648" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="649" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A649" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="650" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A650" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="651" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A651" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="652" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A652" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="653" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A653" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="654" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A654" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="655" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A655" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="656" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A656" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="657" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A657" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="658" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A658" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="659" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A659" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="660" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A660" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="661" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A661" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="662" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A662" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="663" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A663" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="664" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A664" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="665" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A665" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="666" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A666" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="667" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A667" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="668" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A668" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="669" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A669" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="670" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A670" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="671" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A671" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="672" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A672" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="673" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A673" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="674" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A674" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="675" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A675" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="676" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A676" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="677" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A677" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="678" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A678" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="679" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A679" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="680" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A680" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="681" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A681" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="682" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A682" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="683" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A683" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="684" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A684" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="685" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A685" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="686" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A686" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="687" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A687" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="688" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A688" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="689" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A689" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="690" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A690" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="691" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A691" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="692" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A692" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="693" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A693" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="694" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A694" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="695" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A695" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="696" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A696" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="697" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A697" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="698" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A698" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="699" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A699" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="700" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A700" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="701" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A701" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="702" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A702" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="703" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A703" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="704" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A704" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="705" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A705" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="706" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A706" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="707" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A707" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="708" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A708" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="709" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A709" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="710" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A710" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="711" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A711" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="712" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A712" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="713" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A713" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="714" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A714" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="715" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A715" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="716" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A716" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="717" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A717" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="718" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A718" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="719" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A719" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="720" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A720" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="721" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A721" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="722" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A722" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="723" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A723" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="724" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A724" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="725" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A725" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="726" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A726" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="727" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A727" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="728" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A728" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="729" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A729" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="730" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A730" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="731" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A731" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="732" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A732" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="733" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A733" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="734" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A734" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="735" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A735" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="736" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A736" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="737" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A737" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="738" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A738" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="739" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A739" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="740" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A740" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="741" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A741" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="742" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A742" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="743" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A743" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="744" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A744" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="745" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A745" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="746" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A746" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="747" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A747" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="748" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A748" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="749" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A749" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="750" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A750" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="751" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A751" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="752" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A752" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="753" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A753" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="754" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A754" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="755" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A755" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="756" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A756" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="757" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A757" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="758" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A758" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="759" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A759" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="760" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A760" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="761" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A761" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="762" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A762" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="763" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A763" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="764" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A764" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="765" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A765" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="766" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A766" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="767" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A767" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="768" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A768" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="769" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A769" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="770" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A770" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="771" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A771" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="772" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A772" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="773" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A773" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="774" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A774" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="775" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A775" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="776" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A776" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="777" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A777" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="778" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A778" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="779" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A779" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="780" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A780" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="781" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A781" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="782" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A782" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="783" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A783" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="784" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A784" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="785" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A785" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="786" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A786" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="787" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A787" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="788" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A788" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="789" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A789" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="790" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A790" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="791" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A791" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="792" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A792" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="793" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A793" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="794" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A794" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="795" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A795" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>

--- a/excel/a.xlsx
+++ b/excel/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\dev\Google_Bot\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D951E1-50FE-4B61-B206-D816B71ADCCC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215EE3DD-FAE1-40F3-A652-2039800664A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="804">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Bonnisan picaturi contra colicilor x30ml</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Branula cu valva G20 Trimed</t>
@@ -2441,7 +2438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2452,14 +2449,6 @@
     <font>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2482,11 +2471,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2495,10 +2483,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2813,8 +2799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2867,4473 +2853,4051 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="str">
-        <f>HYPERLINK("photos\A1001.jpg","A1001.jpg")</f>
-        <v>A1001.jpg</v>
-      </c>
-      <c r="C2" t="str">
-        <f>HYPERLINK("photos\A1002.jpg","A1002.jpg")</f>
-        <v>A1002.jpg</v>
-      </c>
-      <c r="D2" t="str">
-        <f>HYPERLINK("photos\A1003.jpg","A1003.jpg")</f>
-        <v>A1003.jpg</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <f>HYPERLINK("photos\A1021.jpg","A1021.jpg")</f>
-        <v>A1021.jpg</v>
-      </c>
-      <c r="C4" t="str">
-        <f>HYPERLINK("photos\A1022.jpg","A1022.jpg")</f>
-        <v>A1022.jpg</v>
-      </c>
-      <c r="D4" t="str">
-        <f>HYPERLINK("photos\A1023.jpg","A1023.jpg")</f>
-        <v>A1023.jpg</v>
-      </c>
-      <c r="E4" t="str">
-        <f>HYPERLINK("photos\A1024.jpg","A1024.jpg")</f>
-        <v>A1024.jpg</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="str">
-        <f>HYPERLINK("photos\A1031.jpg","A1031.jpg")</f>
-        <v>A1031.jpg</v>
-      </c>
-      <c r="C5" t="str">
-        <f>HYPERLINK("photos\A1032.jpg","A1032.jpg")</f>
-        <v>A1032.jpg</v>
-      </c>
-      <c r="D5" t="str">
-        <f>HYPERLINK("photos\A1033.jpg","A1033.jpg")</f>
-        <v>A1033.jpg</v>
-      </c>
-      <c r="E5" t="str">
-        <f>HYPERLINK("photos\A1034.jpg","A1034.jpg")</f>
-        <v>A1034.jpg</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="str">
-        <f>HYPERLINK("photos\A1041.jpg","A1041.jpg")</f>
-        <v>A1041.jpg</v>
-      </c>
-      <c r="C6" t="str">
-        <f>HYPERLINK("photos\A1042.jpg","A1042.jpg")</f>
-        <v>A1042.jpg</v>
-      </c>
-      <c r="D6" t="str">
-        <f>HYPERLINK("photos\A1043.jpg","A1043.jpg")</f>
-        <v>A1043.jpg</v>
-      </c>
-      <c r="E6" t="str">
-        <f>HYPERLINK("photos\A1044.jpg","A1044.jpg")</f>
-        <v>A1044.jpg</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
     </row>
     <row r="7" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="str">
-        <f>HYPERLINK("photos\A1051.jpg","A1051.jpg")</f>
-        <v>A1051.jpg</v>
-      </c>
-      <c r="C7" t="str">
-        <f>HYPERLINK("photos\A1052.jpg","A1052.jpg")</f>
-        <v>A1052.jpg</v>
-      </c>
-      <c r="D7" t="str">
-        <f>HYPERLINK("photos\A1053.jpg","A1053.jpg")</f>
-        <v>A1053.jpg</v>
-      </c>
-      <c r="E7" t="str">
-        <f>HYPERLINK("photos\A1054.jpg","A1054.jpg")</f>
-        <v>A1054.jpg</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
     </row>
     <row r="8" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="str">
-        <f>HYPERLINK("photos\A1061.jpg","A1061.jpg")</f>
-        <v>A1061.jpg</v>
-      </c>
-      <c r="C8" t="str">
-        <f>HYPERLINK("photos\A1062.jpg","A1062.jpg")</f>
-        <v>A1062.jpg</v>
-      </c>
-      <c r="D8" t="str">
-        <f>HYPERLINK("photos\A1063.jpg","A1063.jpg")</f>
-        <v>A1063.jpg</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
     </row>
     <row r="9" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="str">
-        <f>HYPERLINK("photos\A1071.jpg","A1071.jpg")</f>
-        <v>A1071.jpg</v>
-      </c>
-      <c r="C9" t="str">
-        <f>HYPERLINK("photos\A1072.jpg","A1072.jpg")</f>
-        <v>A1072.jpg</v>
-      </c>
-      <c r="D9" t="str">
-        <f>HYPERLINK("photos\A1073.jpg","A1073.jpg")</f>
-        <v>A1073.jpg</v>
-      </c>
-      <c r="E9" t="str">
-        <f>HYPERLINK("photos\A1074.jpg","A1074.jpg")</f>
-        <v>A1074.jpg</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
     </row>
     <row r="10" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="str">
-        <f>HYPERLINK("photos\A1081.jpg","A1081.jpg")</f>
-        <v>A1081.jpg</v>
-      </c>
-      <c r="C10" t="str">
-        <f>HYPERLINK("photos\A1082.jpg","A1082.jpg")</f>
-        <v>A1082.jpg</v>
-      </c>
-      <c r="D10" t="str">
-        <f>HYPERLINK("photos\A1083.jpg","A1083.jpg")</f>
-        <v>A1083.jpg</v>
-      </c>
-      <c r="E10" t="str">
-        <f>HYPERLINK("photos\A1084.jpg","A1084.jpg")</f>
-        <v>A1084.jpg</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
     </row>
     <row r="11" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="str">
-        <f>HYPERLINK("photos\A1091.jpg","A1091.jpg")</f>
-        <v>A1091.jpg</v>
-      </c>
-      <c r="C11" t="str">
-        <f>HYPERLINK("photos\A1092.jpg","A1092.jpg")</f>
-        <v>A1092.jpg</v>
-      </c>
-      <c r="D11" t="str">
-        <f>HYPERLINK("photos\A1093.jpg","A1093.jpg")</f>
-        <v>A1093.jpg</v>
-      </c>
-      <c r="E11" t="str">
-        <f>HYPERLINK("photos\A1094.jpg","A1094.jpg")</f>
-        <v>A1094.jpg</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="str">
-        <f>HYPERLINK("photos\A1101.jpg","A1101.jpg")</f>
-        <v>A1101.jpg</v>
-      </c>
-      <c r="C12" t="str">
-        <f>HYPERLINK("photos\A1102.jpg","A1102.jpg")</f>
-        <v>A1102.jpg</v>
-      </c>
-      <c r="D12" t="str">
-        <f>HYPERLINK("photos\A1103.jpg","A1103.jpg")</f>
-        <v>A1103.jpg</v>
-      </c>
-      <c r="E12" t="str">
-        <f>HYPERLINK("photos\A1104.jpg","A1104.jpg")</f>
-        <v>A1104.jpg</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="str">
-        <f>HYPERLINK("photos\A1111.jpg","A1111.jpg")</f>
-        <v>A1111.jpg</v>
-      </c>
-      <c r="C13" t="str">
-        <f>HYPERLINK("photos\A1112.jpg","A1112.jpg")</f>
-        <v>A1112.jpg</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="str">
-        <f>HYPERLINK("photos\A1114.jpg","A1114.jpg")</f>
-        <v>A1114.jpg</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="str">
-        <f>HYPERLINK("photos\A1121.jpg","A1121.jpg")</f>
-        <v>A1121.jpg</v>
-      </c>
-      <c r="C14" t="str">
-        <f>HYPERLINK("photos\A1122.jpg","A1122.jpg")</f>
-        <v>A1122.jpg</v>
-      </c>
-      <c r="D14" t="str">
-        <f>HYPERLINK("photos\A1123.jpg","A1123.jpg")</f>
-        <v>A1123.jpg</v>
-      </c>
-      <c r="E14" t="str">
-        <f>HYPERLINK("photos\A1124.jpg","A1124.jpg")</f>
-        <v>A1124.jpg</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="str">
-        <f>HYPERLINK("photos\A1131.jpg","A1131.jpg")</f>
-        <v>A1131.jpg</v>
-      </c>
-      <c r="C15" t="str">
-        <f>HYPERLINK("photos\A1132.jpg","A1132.jpg")</f>
-        <v>A1132.jpg</v>
-      </c>
-      <c r="D15" t="str">
-        <f>HYPERLINK("photos\A1133.jpg","A1133.jpg")</f>
-        <v>A1133.jpg</v>
-      </c>
-      <c r="E15" t="str">
-        <f>HYPERLINK("photos\A1134.jpg","A1134.jpg")</f>
-        <v>A1134.jpg</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="str">
-        <f>HYPERLINK("photos\A1141.jpg","A1141.jpg")</f>
-        <v>A1141.jpg</v>
-      </c>
-      <c r="C16" t="str">
-        <f>HYPERLINK("photos\A1142.jpg","A1142.jpg")</f>
-        <v>A1142.jpg</v>
-      </c>
-      <c r="D16" t="str">
-        <f>HYPERLINK("photos\A1143.jpg","A1143.jpg")</f>
-        <v>A1143.jpg</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="str">
-        <f>HYPERLINK("photos\A1151.jpg","A1151.jpg")</f>
-        <v>A1151.jpg</v>
-      </c>
-      <c r="C17" t="str">
-        <f>HYPERLINK("photos\A1152.jpg","A1152.jpg")</f>
-        <v>A1152.jpg</v>
-      </c>
-      <c r="D17" t="str">
-        <f>HYPERLINK("photos\A1153.jpg","A1153.jpg")</f>
-        <v>A1153.jpg</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="str">
-        <f>HYPERLINK("photos\A1162.jpg","A1162.jpg")</f>
-        <v>A1162.jpg</v>
-      </c>
-      <c r="D18" t="str">
-        <f>HYPERLINK("photos\A1163.jpg","A1163.jpg")</f>
-        <v>A1163.jpg</v>
-      </c>
-      <c r="E18" t="str">
-        <f>HYPERLINK("photos\A1164.jpg","A1164.jpg")</f>
-        <v>A1164.jpg</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="str">
-        <f>HYPERLINK("photos\A1171.jpg","A1171.jpg")</f>
-        <v>A1171.jpg</v>
-      </c>
-      <c r="C19" t="str">
-        <f>HYPERLINK("photos\A1172.jpg","A1172.jpg")</f>
-        <v>A1172.jpg</v>
-      </c>
-      <c r="D19" t="str">
-        <f>HYPERLINK("photos\A1173.jpg","A1173.jpg")</f>
-        <v>A1173.jpg</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="str">
-        <f>HYPERLINK("photos\A1181.jpg","A1181.jpg")</f>
-        <v>A1181.jpg</v>
-      </c>
-      <c r="C20" t="str">
-        <f>HYPERLINK("photos\A1182.jpg","A1182.jpg")</f>
-        <v>A1182.jpg</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="str">
-        <f>HYPERLINK("photos\A1191.jpg","A1191.jpg")</f>
-        <v>A1191.jpg</v>
-      </c>
-      <c r="C21" t="str">
-        <f>HYPERLINK("photos\A1192.jpg","A1192.jpg")</f>
-        <v>A1192.jpg</v>
-      </c>
-      <c r="D21" t="str">
-        <f>HYPERLINK("photos\A1193.jpg","A1193.jpg")</f>
-        <v>A1193.jpg</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="str">
-        <f>HYPERLINK("photos\A1202.jpg","A1202.jpg")</f>
-        <v>A1202.jpg</v>
-      </c>
-      <c r="D22" t="str">
-        <f>HYPERLINK("photos\A1203.jpg","A1203.jpg")</f>
-        <v>A1203.jpg</v>
-      </c>
-      <c r="E22" t="str">
-        <f>HYPERLINK("photos\A1204.jpg","A1204.jpg")</f>
-        <v>A1204.jpg</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="str">
-        <f>HYPERLINK("photos\A1211.jpg","A1211.jpg")</f>
-        <v>A1211.jpg</v>
-      </c>
-      <c r="C23" t="str">
-        <f>HYPERLINK("photos\A1212.jpg","A1212.jpg")</f>
-        <v>A1212.jpg</v>
-      </c>
-      <c r="D23" t="str">
-        <f>HYPERLINK("photos\A1213.jpg","A1213.jpg")</f>
-        <v>A1213.jpg</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="str">
-        <f>HYPERLINK("photos\A1222.jpg","A1222.jpg")</f>
-        <v>A1222.jpg</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="str">
-        <f>HYPERLINK("photos\A1224.jpg","A1224.jpg")</f>
-        <v>A1224.jpg</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="str">
-        <f>HYPERLINK("photos\A1231.jpg","A1231.jpg")</f>
-        <v>A1231.jpg</v>
-      </c>
-      <c r="C25" t="str">
-        <f>HYPERLINK("photos\A1232.jpg","A1232.jpg")</f>
-        <v>A1232.jpg</v>
-      </c>
-      <c r="D25" t="str">
-        <f>HYPERLINK("photos\A1233.jpg","A1233.jpg")</f>
-        <v>A1233.jpg</v>
-      </c>
-      <c r="E25" t="str">
-        <f>HYPERLINK("photos\A1234.jpg","A1234.jpg")</f>
-        <v>A1234.jpg</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="str">
-        <f>HYPERLINK("photos\A1241.jpg","A1241.jpg")</f>
-        <v>A1241.jpg</v>
-      </c>
-      <c r="C26" t="str">
-        <f>HYPERLINK("photos\A1242.jpg","A1242.jpg")</f>
-        <v>A1242.jpg</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="str">
-        <f>HYPERLINK("photos\A1252.jpg","A1252.jpg")</f>
-        <v>A1252.jpg</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="str">
-        <f>HYPERLINK("photos\A1254.jpg","A1254.jpg")</f>
-        <v>A1254.jpg</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B28" t="str">
-        <f>HYPERLINK("photos\A1261.jpg","A1261.jpg")</f>
-        <v>A1261.jpg</v>
-      </c>
-      <c r="C28" t="str">
-        <f>HYPERLINK("photos\A1262.jpg","A1262.jpg")</f>
-        <v>A1262.jpg</v>
-      </c>
-      <c r="D28" t="str">
-        <f>HYPERLINK("photos\A1263.jpg","A1263.jpg")</f>
-        <v>A1263.jpg</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B29" t="str">
-        <f>HYPERLINK("photos\A1271.jpg","A1271.jpg")</f>
-        <v>A1271.jpg</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="str">
-        <f>HYPERLINK("photos\A1273.jpg","A1273.jpg")</f>
-        <v>A1273.jpg</v>
-      </c>
-      <c r="E29" t="str">
-        <f>HYPERLINK("photos\A1274.jpg","A1274.jpg")</f>
-        <v>A1274.jpg</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B30" t="str">
-        <f>HYPERLINK("photos\A1281.jpg","A1281.jpg")</f>
-        <v>A1281.jpg</v>
-      </c>
-      <c r="C30" t="str">
-        <f>HYPERLINK("photos\A1282.jpg","A1282.jpg")</f>
-        <v>A1282.jpg</v>
-      </c>
-      <c r="D30" t="str">
-        <f>HYPERLINK("photos\A1283.jpg","A1283.jpg")</f>
-        <v>A1283.jpg</v>
-      </c>
-      <c r="E30" t="str">
-        <f>HYPERLINK("photos\A1284.jpg","A1284.jpg")</f>
-        <v>A1284.jpg</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B31" t="str">
-        <f>HYPERLINK("photos\A1291.jpg","A1291.jpg")</f>
-        <v>A1291.jpg</v>
-      </c>
-      <c r="C31" t="str">
-        <f>HYPERLINK("photos\A1292.jpg","A1292.jpg")</f>
-        <v>A1292.jpg</v>
-      </c>
-      <c r="D31" t="str">
-        <f>HYPERLINK("photos\A1293.jpg","A1293.jpg")</f>
-        <v>A1293.jpg</v>
-      </c>
-      <c r="E31" t="str">
-        <f>HYPERLINK("photos\A1294.jpg","A1294.jpg")</f>
-        <v>A1294.jpg</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B32" t="str">
-        <f>HYPERLINK("photos\A1301.jpg","A1301.jpg")</f>
-        <v>A1301.jpg</v>
-      </c>
-      <c r="C32" t="str">
-        <f>HYPERLINK("photos\A1302.jpg","A1302.jpg")</f>
-        <v>A1302.jpg</v>
-      </c>
-      <c r="D32" t="str">
-        <f>HYPERLINK("photos\A1303.jpg","A1303.jpg")</f>
-        <v>A1303.jpg</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="str">
-        <f>HYPERLINK("photos\A1312.jpg","A1312.jpg")</f>
-        <v>A1312.jpg</v>
-      </c>
-      <c r="D33" t="str">
-        <f>HYPERLINK("photos\A1313.jpg","A1313.jpg")</f>
-        <v>A1313.jpg</v>
-      </c>
-      <c r="E33" t="str">
-        <f>HYPERLINK("photos\A1314.jpg","A1314.jpg")</f>
-        <v>A1314.jpg</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B34" t="str">
-        <f>HYPERLINK("photos\A1321.jpg","A1321.jpg")</f>
-        <v>A1321.jpg</v>
-      </c>
-      <c r="C34" t="str">
-        <f>HYPERLINK("photos\A1322.jpg","A1322.jpg")</f>
-        <v>A1322.jpg</v>
-      </c>
-      <c r="D34" t="str">
-        <f>HYPERLINK("photos\A1323.jpg","A1323.jpg")</f>
-        <v>A1323.jpg</v>
-      </c>
-      <c r="E34" t="str">
-        <f>HYPERLINK("photos\A1324.jpg","A1324.jpg")</f>
-        <v>A1324.jpg</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A273" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A274" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A294" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A295" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A308" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A309" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A310" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A312" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A313" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A314" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A315" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A316" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A317" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A318" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A319" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A320" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A321" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A322" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A323" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A324" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A326" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A327" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A328" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A329" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A330" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A331" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A332" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A333" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A334" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A335" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A336" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A337" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A345" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A346" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A347" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A348" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A349" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A350" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A351" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A352" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A353" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A354" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A355" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A356" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A357" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A358" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A359" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A360" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A361" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A362" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A363" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A364" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A365" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A366" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A367" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A368" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A369" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A370" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A371" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A372" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A373" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A374" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A375" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A376" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A377" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A378" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A379" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A380" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A381" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A382" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A383" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A384" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A385" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A386" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A387" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="388" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A388" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A389" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="390" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A390" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="391" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A391" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A392" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="393" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A393" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A394" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A395" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="396" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A396" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A397" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A398" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="399" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A399" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="400" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A400" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A401" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="402" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A402" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A403" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A404" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="405" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A405" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="406" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A406" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="407" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A407" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A408" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A409" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="411" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="412" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A412" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="413" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A413" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A414" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="415" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A415" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A416" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="417" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A417" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A418" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="419" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A419" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A420" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="421" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A421" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A422" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="423" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A423" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="424" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A424" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="425" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A425" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="426" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A426" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="427" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A427" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A428" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="429" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A429" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="430" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A430" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="431" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A431" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="432" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A432" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="433" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A433" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="434" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A434" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="435" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A435" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="436" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A436" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="437" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A437" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="438" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A438" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="439" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A439" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A440" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="441" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A441" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="442" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A442" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="443" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A443" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="444" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A444" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="445" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A445" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A446" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="447" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A447" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="448" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A448" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="449" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A449" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="450" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A450" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="451" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A451" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A452" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="453" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A453" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="454" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A454" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="455" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A455" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="456" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A456" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="457" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A457" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A458" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="459" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A459" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="460" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A460" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="461" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A461" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="462" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A462" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="463" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A463" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="464" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A464" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A465" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A466" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A467" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A468" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A469" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A470" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="471" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A471" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A472" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="473" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A473" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A474" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="475" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A475" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A476" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A477" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="478" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A478" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A479" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A480" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="481" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A481" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A482" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="483" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A483" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A484" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A485" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="486" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A486" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A487" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A488" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A489" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A490" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="491" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A491" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="492" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A492" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A493" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A494" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="495" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A495" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A496" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="497" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A497" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="498" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A498" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="499" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A499" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A500" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="501" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A501" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="502" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A502" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="503" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A503" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="504" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A504" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A505" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="506" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A506" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="507" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A507" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="508" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A508" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="509" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A509" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A510" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="511" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A511" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A512" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="513" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A513" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="514" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A514" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="515" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A515" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="516" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A516" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="517" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A517" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="518" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A518" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="519" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A519" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="520" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A520" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="521" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A521" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="522" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A522" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="523" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A523" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="524" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A524" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="525" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A525" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="526" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A526" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="527" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A527" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="528" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A528" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="529" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A529" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="530" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A530" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="531" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A531" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="532" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A532" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="533" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A533" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="534" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A534" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="535" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A535" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="536" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A536" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="537" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A537" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="538" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A538" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="539" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A539" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="540" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A540" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="541" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A541" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="542" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A542" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="543" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A543" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="544" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A544" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="545" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A545" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="546" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A546" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="547" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A547" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="548" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A548" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="549" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A549" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="550" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A550" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="551" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A551" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="552" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A552" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="553" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A553" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="554" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A554" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="555" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A555" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="556" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A556" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="557" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A557" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="558" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A558" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="559" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A559" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="560" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A560" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="561" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A561" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="562" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A562" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="563" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A563" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="564" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A564" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="565" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A565" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="566" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A566" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="567" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A567" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="568" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A568" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="569" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A569" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="570" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A570" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="571" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A571" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="572" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A572" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="573" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A573" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="574" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A574" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="575" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A575" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="576" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A576" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="577" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A577" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="578" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A578" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="579" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A579" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="580" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A580" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="581" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A581" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="582" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A582" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="583" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A583" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="584" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A584" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="585" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A585" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="586" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A586" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="587" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A587" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="588" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A588" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="589" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A589" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="590" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A590" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="591" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A591" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="592" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A592" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="593" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A593" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="594" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A594" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="595" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A595" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="596" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A596" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="597" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A597" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="598" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A598" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="599" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A599" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="600" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A600" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="601" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A601" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="602" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A602" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="603" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A603" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="604" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A604" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="605" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A605" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="606" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A606" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="607" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A607" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="608" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A608" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="609" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A609" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="610" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A610" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="611" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A611" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="612" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A612" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="613" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A613" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="614" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A614" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="615" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A615" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="616" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A616" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="617" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A617" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="618" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A618" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="619" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A619" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="620" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A620" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="621" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A621" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="622" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A622" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="623" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A623" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="624" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A624" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="625" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A625" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="626" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A626" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="627" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A627" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="628" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A628" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="629" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A629" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="630" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A630" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="631" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A631" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="632" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A632" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="633" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A633" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="634" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A634" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="635" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A635" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="636" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A636" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="637" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A637" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="638" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A638" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="639" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A639" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="640" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A640" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="641" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A641" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="642" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A642" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="643" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A643" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="644" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A644" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="645" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A645" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="646" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A646" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="647" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A647" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="648" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A648" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="649" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A649" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="650" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A650" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="651" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A651" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="652" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A652" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="653" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A653" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="654" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A654" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="655" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A655" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="656" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A656" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="657" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A657" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="658" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A658" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="659" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A659" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="660" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A660" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="661" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A661" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="662" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A662" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="663" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A663" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="664" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A664" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="665" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A665" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="666" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A666" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="667" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A667" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="668" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A668" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="669" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A669" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="670" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A670" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="671" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A671" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="672" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A672" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="673" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A673" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="674" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A674" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="675" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A675" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="676" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A676" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="677" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A677" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="678" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A678" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="679" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A679" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="680" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A680" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="681" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A681" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="682" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A682" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="683" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A683" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="684" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A684" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="685" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A685" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="686" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A686" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="687" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A687" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="688" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A688" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="689" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A689" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="690" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A690" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="691" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A691" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="692" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A692" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="693" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A693" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="694" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A694" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="695" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A695" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="696" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A696" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="697" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A697" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="698" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A698" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="699" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A699" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="700" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A700" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="701" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A701" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="702" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A702" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="703" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A703" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="704" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A704" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="705" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A705" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="706" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A706" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="707" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A707" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="708" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A708" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="709" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A709" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="710" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A710" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="711" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A711" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="712" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A712" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="713" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A713" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="714" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A714" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="715" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A715" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="716" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A716" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="717" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A717" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="718" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A718" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="719" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A719" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="720" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A720" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="721" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A721" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="722" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A722" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="723" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A723" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="724" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A724" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="725" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A725" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="726" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A726" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="727" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A727" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="728" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A728" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="729" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A729" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="730" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A730" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="731" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A731" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="732" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A732" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="733" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A733" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="734" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A734" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="735" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A735" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="736" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A736" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="737" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A737" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="738" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A738" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="739" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A739" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="740" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A740" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="741" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A741" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="742" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A742" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="743" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A743" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="744" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A744" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="745" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A745" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="746" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A746" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="747" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A747" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="748" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A748" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="749" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A749" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="750" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A750" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="751" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A751" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="752" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A752" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="753" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A753" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="754" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A754" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="755" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A755" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="756" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A756" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="757" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A757" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="758" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A758" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="759" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A759" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="760" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A760" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="761" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A761" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="762" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A762" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="763" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A763" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="764" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A764" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="765" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A765" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="766" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A766" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="767" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A767" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="768" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A768" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="769" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A769" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="770" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A770" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="771" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A771" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="772" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A772" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="773" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A773" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="774" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A774" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="775" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A775" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="776" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A776" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="777" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A777" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="778" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A778" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="779" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A779" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="780" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A780" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="781" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A781" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="782" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A782" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="783" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A783" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="784" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A784" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="785" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A785" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="786" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A786" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="787" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A787" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="788" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A788" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="789" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A789" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="790" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A790" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="791" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A791" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="792" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A792" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="793" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A793" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="794" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A794" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="795" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A795" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>

--- a/excel/a.xlsx
+++ b/excel/a.xlsx
@@ -505,6 +505,10 @@
           <t>Calcidin sirop 250ml</t>
         </is>
       </c>
+      <c r="B7">
+        <f>HYPERLINK("photos\A1051.jpg","A1051.jpg")</f>
+        <v/>
+      </c>
     </row>
     <row r="8" ht="25.05" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -512,6 +516,10 @@
           <t>Calcidin x 60plic</t>
         </is>
       </c>
+      <c r="B8">
+        <f>HYPERLINK("photos\A1061.jpg","A1061.jpg")</f>
+        <v/>
+      </c>
     </row>
     <row r="9" ht="25.05" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -519,6 +527,10 @@
           <t>Calciu lactic 500mg x 20cp (Biofarm)</t>
         </is>
       </c>
+      <c r="B9">
+        <f>HYPERLINK("photos\A1071.jpg","A1071.jpg")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" ht="25.05" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -526,6 +538,10 @@
           <t>Calciu lactic 500mg x 20cp (Hyllan)</t>
         </is>
       </c>
+      <c r="B10">
+        <f>HYPERLINK("photos\A1081.jpg","A1081.jpg")</f>
+        <v/>
+      </c>
     </row>
     <row r="11" ht="25.05" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
@@ -533,6 +549,10 @@
           <t>Calciu lactic 500mg x 20cp (Labormed)</t>
         </is>
       </c>
+      <c r="B11">
+        <f>HYPERLINK("photos\A1091.jpg","A1091.jpg")</f>
+        <v/>
+      </c>
     </row>
     <row r="12" ht="25.05" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
@@ -540,12 +560,20 @@
           <t>Calciu lactic 500mg x 50cp (Biofarm)</t>
         </is>
       </c>
+      <c r="B12">
+        <f>HYPERLINK("photos\A1101.jpg","A1101.jpg")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" ht="25.05" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Calciu Sandoz Osteo x 30cp.mast-Folie</t>
         </is>
+      </c>
+      <c r="B13">
+        <f>HYPERLINK("photos\A1111.jpg","A1111.jpg")</f>
+        <v/>
       </c>
     </row>
     <row r="14" ht="25.05" customHeight="1">

--- a/excel/a.xlsx
+++ b/excel/a.xlsx
@@ -452,7 +452,38 @@
         <f>HYPERLINK("photos\A1001.jpg","A1001.jpg")</f>
         <v/>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="C2">
+        <f>HYPERLINK("photos\A1002.jpg","A1002.jpg")</f>
+        <v/>
+      </c>
+      <c r="D2">
+        <f>HYPERLINK("photos\A1003.jpg","A1003.jpg")</f>
+        <v/>
+      </c>
+      <c r="E2">
+        <f>HYPERLINK("photos\A1004.jpg","A1004.jpg")</f>
+        <v/>
+      </c>
+      <c r="F2">
+        <f>HYPERLINK("photos\A1005.jpg","A1005.jpg")</f>
+        <v/>
+      </c>
+      <c r="G2">
+        <f>HYPERLINK("photos\A1006.jpg","A1006.jpg")</f>
+        <v/>
+      </c>
+      <c r="H2">
+        <f>HYPERLINK("photos\A1007.jpg","A1007.jpg")</f>
+        <v/>
+      </c>
+      <c r="I2">
+        <f>HYPERLINK("photos\A1008.jpg","A1008.jpg")</f>
+        <v/>
+      </c>
+      <c r="J2">
+        <f>HYPERLINK("photos\A1009.jpg","A1009.jpg")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="25.05" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -465,6 +496,46 @@
           <t>n/a</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="25.05" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -472,9 +543,50 @@
           <t>Branule 16G (Suruflon)</t>
         </is>
       </c>
-      <c r="B4">
-        <f>HYPERLINK("photos\A1021.jpg","A1021.jpg")</f>
-        <v/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="25.05" customHeight="1">
@@ -483,9 +595,50 @@
           <t>Bronhoklir Sir tuse uscat+nalba 5ml 15pl</t>
         </is>
       </c>
-      <c r="B5">
-        <f>HYPERLINK("photos\A1031.jpg","A1031.jpg")</f>
-        <v/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="25.05" customHeight="1">
@@ -494,9 +647,50 @@
           <t>Bronhoklir Sirop tuse prod 5ml x 15pl</t>
         </is>
       </c>
-      <c r="B6">
-        <f>HYPERLINK("photos\A1041.jpg","A1041.jpg")</f>
-        <v/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
       </c>
     </row>
     <row r="7" ht="25.05" customHeight="1">
@@ -505,9 +699,50 @@
           <t>Calcidin sirop 250ml</t>
         </is>
       </c>
-      <c r="B7">
-        <f>HYPERLINK("photos\A1051.jpg","A1051.jpg")</f>
-        <v/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
       </c>
     </row>
     <row r="8" ht="25.05" customHeight="1">
@@ -516,9 +751,50 @@
           <t>Calcidin x 60plic</t>
         </is>
       </c>
-      <c r="B8">
-        <f>HYPERLINK("photos\A1061.jpg","A1061.jpg")</f>
-        <v/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
       </c>
     </row>
     <row r="9" ht="25.05" customHeight="1">
@@ -527,9 +803,50 @@
           <t>Calciu lactic 500mg x 20cp (Biofarm)</t>
         </is>
       </c>
-      <c r="B9">
-        <f>HYPERLINK("photos\A1071.jpg","A1071.jpg")</f>
-        <v/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
       </c>
     </row>
     <row r="10" ht="25.05" customHeight="1">
@@ -538,9 +855,50 @@
           <t>Calciu lactic 500mg x 20cp (Hyllan)</t>
         </is>
       </c>
-      <c r="B10">
-        <f>HYPERLINK("photos\A1081.jpg","A1081.jpg")</f>
-        <v/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
       </c>
     </row>
     <row r="11" ht="25.05" customHeight="1">
@@ -549,9 +907,50 @@
           <t>Calciu lactic 500mg x 20cp (Labormed)</t>
         </is>
       </c>
-      <c r="B11">
-        <f>HYPERLINK("photos\A1091.jpg","A1091.jpg")</f>
-        <v/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
       </c>
     </row>
     <row r="12" ht="25.05" customHeight="1">
@@ -560,9 +959,50 @@
           <t>Calciu lactic 500mg x 50cp (Biofarm)</t>
         </is>
       </c>
-      <c r="B12">
-        <f>HYPERLINK("photos\A1101.jpg","A1101.jpg")</f>
-        <v/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
       </c>
     </row>
     <row r="13" ht="25.05" customHeight="1">
@@ -571,9 +1011,50 @@
           <t>Calciu Sandoz Osteo x 30cp.mast-Folie</t>
         </is>
       </c>
-      <c r="B13">
-        <f>HYPERLINK("photos\A1111.jpg","A1111.jpg")</f>
-        <v/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
       </c>
     </row>
     <row r="14" ht="25.05" customHeight="1">
@@ -582,6 +1063,51 @@
           <t>Calcivid Citrat x 30cp.film W64301001</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="25.05" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -589,6 +1115,51 @@
           <t>Cal-D-Vita 600mg/400UI 1fl x 60cp.mast</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="25.05" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -596,6 +1167,51 @@
           <t>Calgel gel gingival x 10g (Mcneil)</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="25.05" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -603,6 +1219,51 @@
           <t>Calmogen Plant Complex x 30cps</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="25.05" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -610,6 +1271,51 @@
           <t>Calmogen Plant Somn x 30cps (OmegaPharma</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="25.05" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -617,6 +1323,51 @@
           <t>Calmotusin balsam spray cu ag.coloidal</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="25.05" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -624,6 +1375,51 @@
           <t>Calmotusin spray 20ml</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="25.05" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
@@ -631,6 +1427,51 @@
           <t>Cavit Junior caise x 20tb.mast</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="25.05" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -638,6 +1479,51 @@
           <t>Cavit Junior cu ciocolata x 20tb.mast</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="25.05" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -645,6 +1531,51 @@
           <t>Cavit junior fara zahar x 20tb.mast</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="25.05" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -652,6 +1583,51 @@
           <t>Cavit Junior vanilie x 20tb.mast</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="25.05" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -659,6 +1635,51 @@
           <t>Ceai afine fz x 50g (Larix)</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="25.05" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -666,6 +1687,51 @@
           <t>Ceai anghinare x 20 dz</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="25.05" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -673,6 +1739,51 @@
           <t>Ceai anghinare x 50g (Cyani)</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="25.05" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
@@ -680,6 +1791,42 @@
           <t>Ceai anghinare x 50g (Fares)</t>
         </is>
       </c>
+      <c r="B28">
+        <f>HYPERLINK("photos\A1261.jpg","A1261.jpg")</f>
+        <v/>
+      </c>
+      <c r="C28">
+        <f>HYPERLINK("photos\A1262.jpg","A1262.jpg")</f>
+        <v/>
+      </c>
+      <c r="D28">
+        <f>HYPERLINK("photos\A1263.jpg","A1263.jpg")</f>
+        <v/>
+      </c>
+      <c r="E28">
+        <f>HYPERLINK("photos\A1264.jpg","A1264.jpg")</f>
+        <v/>
+      </c>
+      <c r="F28">
+        <f>HYPERLINK("photos\A1265.jpg","A1265.jpg")</f>
+        <v/>
+      </c>
+      <c r="G28">
+        <f>HYPERLINK("photos\A1266.jpg","A1266.jpg")</f>
+        <v/>
+      </c>
+      <c r="H28">
+        <f>HYPERLINK("photos\A1267.jpg","A1267.jpg")</f>
+        <v/>
+      </c>
+      <c r="I28">
+        <f>HYPERLINK("photos\A1268.jpg","A1268.jpg")</f>
+        <v/>
+      </c>
+      <c r="J28">
+        <f>HYPERLINK("photos\A1269.jpg","A1269.jpg")</f>
+        <v/>
+      </c>
     </row>
     <row r="29" ht="25.05" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
@@ -687,6 +1834,43 @@
           <t>Ceai antiadipos 2</t>
         </is>
       </c>
+      <c r="B29">
+        <f>HYPERLINK("photos\A1271.jpg","A1271.jpg")</f>
+        <v/>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D29">
+        <f>HYPERLINK("photos\A1273.jpg","A1273.jpg")</f>
+        <v/>
+      </c>
+      <c r="E29">
+        <f>HYPERLINK("photos\A1274.jpg","A1274.jpg")</f>
+        <v/>
+      </c>
+      <c r="F29">
+        <f>HYPERLINK("photos\A1275.jpg","A1275.jpg")</f>
+        <v/>
+      </c>
+      <c r="G29">
+        <f>HYPERLINK("photos\A1276.jpg","A1276.jpg")</f>
+        <v/>
+      </c>
+      <c r="H29">
+        <f>HYPERLINK("photos\A1277.jpg","A1277.jpg")</f>
+        <v/>
+      </c>
+      <c r="I29">
+        <f>HYPERLINK("photos\A1278.jpg","A1278.jpg")</f>
+        <v/>
+      </c>
+      <c r="J29">
+        <f>HYPERLINK("photos\A1279.jpg","A1279.jpg")</f>
+        <v/>
+      </c>
     </row>
     <row r="30" ht="25.05" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -694,6 +1878,7 @@
           <t>Ceai antiadipos cu ginseng rosu x30plic</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31" ht="25.05" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
